--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3E3F1D-486E-401C-A155-E736A72F639D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2225798-668D-44E7-B768-03BC0713BB04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -40,24 +40,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
   <si>
-    <t>${col1}</t>
-  </si>
-  <si>
-    <t>${col2}</t>
-  </si>
-  <si>
-    <t>${col5}</t>
-  </si>
-  <si>
     <t>Totale:</t>
   </si>
   <si>
     <t>Gran totale:</t>
+  </si>
+  <si>
+    <t>${s_col1}</t>
+  </si>
+  <si>
+    <t>${s_col2}</t>
+  </si>
+  <si>
+    <t>${s_col3}</t>
+  </si>
+  <si>
+    <t>${s1_col1}</t>
+  </si>
+  <si>
+    <t>Colonna seconda tab:</t>
+  </si>
+  <si>
+    <t>Prima grid:</t>
+  </si>
+  <si>
+    <t>Seconda grid:</t>
   </si>
   <si>
     <t/>
@@ -148,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,19 +177,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,145 +567,198 @@
     <col min="1" max="1" width="8.0" customWidth="true"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
     <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="7" t="n">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A3" s="11" t="n">
         <v>5.0</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="12" t="n">
         <v>1.1</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>1.102</v>
+      <c r="C3" s="11" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" t="n" s="7">
+      <c r="A4" t="n" s="11">
         <v>1.0</v>
       </c>
-      <c r="B4" t="n" s="5">
+      <c r="B4" t="n" s="12">
         <v>2.0</v>
       </c>
-      <c r="C4" t="n" s="7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="n">
+      <c r="C4" t="n" s="11">
+        <v>-2.13</v>
+      </c>
+      <c r="D4" t="n" s="13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="n">
         <v>1.0</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="12" t="n">
         <v>3.1</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>-3.12541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" s="7" t="n">
+      <c r="C5" s="11" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="D5" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A6" s="11" t="n">
         <v>2.0</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="12" t="n">
         <v>4.2</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A7" s="7" t="n">
+      <c r="C6" s="11" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="D6" t="n" s="13">
         <v>2.0</v>
       </c>
-      <c r="B7" t="n" s="5">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A7" s="11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="n" s="12">
         <v>12.0</v>
       </c>
-      <c r="C7" t="n" s="7">
-        <v>12.12</v>
+      <c r="C7" t="n" s="11">
+        <v>-12.16</v>
+      </c>
+      <c r="D7" t="n" s="13">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="n" s="7">
+      <c r="A8" t="n" s="11">
         <v>2.0</v>
       </c>
-      <c r="B8" t="n" s="5">
+      <c r="B8" t="n" s="12">
         <v>13.4</v>
       </c>
-      <c r="C8" t="n" s="7">
-        <v>1.3123213012E7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A9" s="7" t="n">
+      <c r="C8" t="n" s="11">
+        <v>-13.0</v>
+      </c>
+      <c r="D8" t="n" s="13">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A9" s="11" t="n">
         <v>2.0</v>
       </c>
-      <c r="B9" t="n" s="5">
+      <c r="B9" t="n" s="12">
         <v>14.1</v>
       </c>
-      <c r="C9" t="n" s="7">
-        <v>1123114.49</v>
+      <c r="C9" t="n" s="11">
+        <v>-14.01</v>
+      </c>
+      <c r="D9" t="n" s="13">
+        <v>10.0</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" t="n" s="7">
+      <c r="A10" t="n" s="11">
         <v>2.0</v>
       </c>
-      <c r="B10" t="n" s="5">
+      <c r="B10" t="n" s="12">
         <v>35.0</v>
       </c>
-      <c r="C10" t="n" s="7">
-        <v>1235.359</v>
+      <c r="C10" t="n" s="11">
+        <v>-35.02</v>
+      </c>
+      <c r="D10" t="n" s="13">
+        <v>15.0</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" t="n" s="7">
+      <c r="A11" t="n" s="11">
         <v>1.0</v>
       </c>
-      <c r="B11" t="n" s="5">
+      <c r="B11" t="n" s="12">
         <v>55.0</v>
       </c>
-      <c r="C11" t="n" s="7">
-        <v>9955.0</v>
+      <c r="C11" t="n" s="11">
+        <v>-55.03</v>
+      </c>
+      <c r="D11" t="n" s="13">
+        <v>50.0</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" t="n" s="7">
+      <c r="A12" t="n" s="11">
         <v>1.0</v>
       </c>
-      <c r="B12" t="n" s="5">
+      <c r="B12" t="n" s="12">
         <v>121.0</v>
       </c>
-      <c r="C12" t="n" s="7">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true"/>
-    <row r="14" ht="16.5" customHeight="true">
-      <c r="A14" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="C12" t="n" s="11">
+        <v>-121.0</v>
+      </c>
+      <c r="D12" t="n" s="13">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="D13" t="n" s="13">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
         <f>SUM(B3:B12)</f>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <f>SUM(C3:C12)</f>
       </c>
+      <c r="D14" t="n" s="13">
+        <v>900.0</v>
+      </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="s" s="6">
-        <v>5</v>
+      <c r="A15" t="s" s="5">
+        <v>2</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <f>SUM(B14+C14)</f>
       </c>
     </row>
+    <row r="16" ht="16.5" customHeight="true"/>
+    <row r="17" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2225798-668D-44E7-B768-03BC0713BB04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337C7CD-0B1B-410D-A6E7-5BC294BEF90A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Gran totale:</t>
   </si>
   <si>
+    <t>${obj}</t>
+  </si>
+  <si>
     <t>${s_col1}</t>
   </si>
   <si>
@@ -73,6 +76,63 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>FIOGIA</t>
+  </si>
+  <si>
+    <t>SANCOS</t>
+  </si>
+  <si>
+    <t>PARFRA</t>
+  </si>
+  <si>
+    <t>FORFED</t>
+  </si>
+  <si>
+    <t>BELQUI</t>
+  </si>
+  <si>
+    <t>ROCMAT</t>
+  </si>
+  <si>
+    <t>MAEOLI</t>
+  </si>
+  <si>
+    <t>CARLUC</t>
+  </si>
+  <si>
+    <t>CASFRA</t>
+  </si>
+  <si>
+    <t>DELGIO</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>GIALLO</t>
+  </si>
+  <si>
+    <t>*BOLD</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>GRIGIO</t>
+  </si>
+  <si>
+    <t>ESEMPIO 1</t>
+  </si>
+  <si>
+    <t>TESTO 2</t>
+  </si>
+  <si>
+    <t>CELLA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROVA 4</t>
   </si>
 </sst>
 </file>
@@ -556,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +629,13 @@
     <col min="3" max="3" width="8.0" customWidth="true"/>
     <col min="4" max="4" width="8.0" customWidth="true"/>
     <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="8.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="8.0" customWidth="true"/>
+    <col min="11" max="11" width="8.0" customWidth="true"/>
+    <col min="12" max="12" width="8.0" customWidth="true"/>
+    <col min="13" max="13" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
@@ -580,10 +647,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
@@ -599,6 +666,30 @@
       <c r="D3" s="13" t="n">
         <v>3.0</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.1</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>-1.12</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>-1.05</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1.102</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" t="n" s="11">
@@ -613,6 +704,30 @@
       <c r="D4" t="n" s="13">
         <v>0.0</v>
       </c>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>-2.13</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>2.1</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="n">
@@ -627,8 +742,29 @@
       <c r="D5" t="n" s="13">
         <v>1.0</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
+      <c r="F5" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>3.1</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>-3.14</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>-3.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>-3.12541</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
@@ -644,6 +780,30 @@
       <c r="D6" t="n" s="13">
         <v>2.0</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>4.2</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>-4.15</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>-4.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>4.4</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A7" s="11" t="n">
@@ -658,6 +818,30 @@
       <c r="D7" t="n" s="13">
         <v>3.0</v>
       </c>
+      <c r="F7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>-12.16</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>-12.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>12.12</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="n" s="11">
@@ -672,6 +856,30 @@
       <c r="D8" t="n" s="13">
         <v>5.0</v>
       </c>
+      <c r="F8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>13.4</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>-13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>-13.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.3123213012E7</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>66.0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A9" s="11" t="n">
@@ -686,6 +894,30 @@
       <c r="D9" t="n" s="13">
         <v>10.0</v>
       </c>
+      <c r="F9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>14.1</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>-14.01</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>-14.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>1123114.49</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="n" s="11">
@@ -700,6 +932,30 @@
       <c r="D10" t="n" s="13">
         <v>15.0</v>
       </c>
+      <c r="F10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>-35.02</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>-35.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>1235.359</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>1000.0</v>
+      </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="n" s="11">
@@ -714,6 +970,30 @@
       <c r="D11" t="n" s="13">
         <v>50.0</v>
       </c>
+      <c r="F11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>-55.03</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>-55.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>9955.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>55.22</v>
+      </c>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="n" s="11">
@@ -727,6 +1007,30 @@
       </c>
       <c r="D12" t="n" s="13">
         <v>101.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>-121.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>-121.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>20.11</v>
       </c>
     </row>
     <row r="13" ht="15.0" customHeight="true">
@@ -747,6 +1051,9 @@
       <c r="D14" t="n" s="13">
         <v>900.0</v>
       </c>
+      <c r="F14" t="s" s="0">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" t="s" s="5">
@@ -756,9 +1063,317 @@
       <c r="C15" s="7">
         <f>SUM(B14+C14)</f>
       </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="true"/>
-    <row r="17" ht="15.0" customHeight="true"/>
+      <c r="F15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="true">
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="F17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="F18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="F19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="true">
+      <c r="F20" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="F21" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="F22" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="15.0" customHeight="true">
+      <c r="F23" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="true">
+      <c r="F24" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="F25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="15.0" customHeight="true">
+      <c r="F26" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337C7CD-0B1B-410D-A6E7-5BC294BEF90A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DBEB5-B50C-456D-B624-47BF0930E9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="155">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -66,15 +66,21 @@
     <t>${s1_col1}</t>
   </si>
   <si>
-    <t>Colonna seconda tab:</t>
-  </si>
-  <si>
     <t>Prima grid:</t>
   </si>
   <si>
     <t>Seconda grid:</t>
   </si>
   <si>
+    <t>${s1_col5}</t>
+  </si>
+  <si>
+    <t>Terza grid:</t>
+  </si>
+  <si>
+    <t>${headers.getTxt()}</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -133,6 +139,381 @@
   </si>
   <si>
     <t xml:space="preserve"> PROVA 4</t>
+  </si>
+  <si>
+    <t>Nr.|Record</t>
+  </si>
+  <si>
+    <t>Tipo|progetto</t>
+  </si>
+  <si>
+    <t>Descrizione|progetto</t>
+  </si>
+  <si>
+    <t>Utente|assegnatario</t>
+  </si>
+  <si>
+    <t>Descrizione|utente</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>Descrizione|stato</t>
+  </si>
+  <si>
+    <t>PrioritÃ </t>
+  </si>
+  <si>
+    <t>Descrizione|prioritÃ </t>
+  </si>
+  <si>
+    <t>Data|assegnazione</t>
+  </si>
+  <si>
+    <t>Descrizione|task</t>
+  </si>
+  <si>
+    <t>Utente|inserimento</t>
+  </si>
+  <si>
+    <t>Data|inserimento</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>RRN</t>
+  </si>
+  <si>
+    <t>0000000072</t>
+  </si>
+  <si>
+    <t>0000000073</t>
+  </si>
+  <si>
+    <t>0000000074</t>
+  </si>
+  <si>
+    <t>0000000075</t>
+  </si>
+  <si>
+    <t>0000000076</t>
+  </si>
+  <si>
+    <t>0000000078</t>
+  </si>
+  <si>
+    <t>0000000080</t>
+  </si>
+  <si>
+    <t>0000000084</t>
+  </si>
+  <si>
+    <t>0000000085</t>
+  </si>
+  <si>
+    <t>0000000087</t>
+  </si>
+  <si>
+    <t>0000000088</t>
+  </si>
+  <si>
+    <t>0000000090</t>
+  </si>
+  <si>
+    <t>0000000091</t>
+  </si>
+  <si>
+    <t>0000000092</t>
+  </si>
+  <si>
+    <t>0000000093</t>
+  </si>
+  <si>
+    <t>0000000094</t>
+  </si>
+  <si>
+    <t>0000000095</t>
+  </si>
+  <si>
+    <t>0000000096</t>
+  </si>
+  <si>
+    <t>0000000097</t>
+  </si>
+  <si>
+    <t>0000000098</t>
+  </si>
+  <si>
+    <t>0000000099</t>
+  </si>
+  <si>
+    <t>0000000100</t>
+  </si>
+  <si>
+    <t>0000000101</t>
+  </si>
+  <si>
+    <t>0000000102</t>
+  </si>
+  <si>
+    <t>0000000103</t>
+  </si>
+  <si>
+    <t>0000000104</t>
+  </si>
+  <si>
+    <t>0000000105</t>
+  </si>
+  <si>
+    <t>0000000106</t>
+  </si>
+  <si>
+    <t>0000000107</t>
+  </si>
+  <si>
+    <t>0000000108</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Loocup</t>
+  </si>
+  <si>
+    <t>Webup</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>MINCLA</t>
+  </si>
+  <si>
+    <t>FEDROB</t>
+  </si>
+  <si>
+    <t>MARAND</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Configuratore : aiutare Federico sulla definizione del protocollo aggiornamento.</t>
+  </si>
+  <si>
+    <t>booleanButton: in mobile non esiste questo componente</t>
+  </si>
+  <si>
+    <t>In mobile, css da modificare:
+spinner (SPN)
+slider (SLD)
+radiobutton (RAD)
+checkboxlist (CHL)
+immagine (IMG)
+rating (RTG)
+range (RNG)
+button colore default (BTN)</t>
+  </si>
+  <si>
+    <t>controllare quali field non hanno il p:ajax</t>
+  </si>
+  <si>
+    <t>signature: in mobile non viene renderizzato (e neanche in web)</t>
+  </si>
+  <si>
+    <t>Graphcomp selectManyMenu: in mobile viene na schifezza</t>
+  </si>
+  <si>
+    <t>Lavori sui graphcomp (vedi allegato)</t>
+  </si>
+  <si>
+    <t>Immagini store e descrizione da aggiornare (apple e google)</t>
+  </si>
+  <si>
+    <t>Per i B2B potrebbe essere necessaria una paginetta che sostituisca la login quando il sistema non Ã¨ attivo (Es. manutenzione provider, ecc..) Segnalato da Seven Diesel</t>
+  </si>
+  <si>
+    <t>formulas (matrice). Fatte due schede d'esempio, manca l'implementazione web. Vedere classi (SmeupFormulaSolver) Loocup in progetto SmeDevSVN</t>
+  </si>
+  <si>
+    <t>configuratore (compresa la ricorsione, di cui abbiamo creato un esempio).</t>
+  </si>
+  <si>
+    <t>verificare dinamismi al close</t>
+  </si>
+  <si>
+    <t>verificare differenze vecchia/nuova matrice mobile</t>
+  </si>
+  <si>
+    <t>scovare (e risolvere) memory leak delphi. In alternativa, decidere se ha senso fregrarsene</t>
+  </si>
+  <si>
+    <t>SPC: verificare errori segnalati da Roberta Colombo (vedi email). Prima di tutto riprendere in mano il componente a studiarne il funzionamento.
+Dobbiamo dare una risposta il prima possibile. C'Ã¨ il cliente sul piede di guerra, minaccia di prendere un'altra soluzione.</t>
+  </si>
+  <si>
+    <t>leggere dimensioni scheda da setup e usarle nei dialog. Confrontarsi con Claudio per decidere come mettere le suddette dimensioni nella pagina.</t>
+  </si>
+  <si>
+    <t>rendere la scheda task utilizzabile da mobile</t>
+  </si>
+  <si>
+    <t>ridiscutere MDV con Silvio e Mauro, rispetto a quanto ci siamo detti sull'implementazione "finale". In alternativa andare di implementazione base, con iupopup che gestiscono una tendina (leaf=Din)</t>
+  </si>
+  <si>
+    <t>Provider: gestire le A() cieche, sia quelle che non rispondono che quelle che rispondono con una action di tipo F()</t>
+  </si>
+  <si>
+    <t>Provider su linux:  Creare progetto su SVN. Creare progetto eclipse sulla vm linux creata da gianluca e farlo partire come webapp. Iniziare con i test sulle cartelle.</t>
+  </si>
+  <si>
+    <t>problemi css da mail di Stefano Lancini</t>
+  </si>
+  <si>
+    <t>ottimizzazione inputpanel: caricare combo lazy</t>
+  </si>
+  <si>
+    <t>Insert e Delete in input panel non sono tradotti!</t>
+  </si>
+  <si>
+    <t>CSS per dimensionamento dei dialog: come dobbiamo modificare la parte jsf per impostarlo leggendolo dalla scheda? E il default quale deve essere?</t>
+  </si>
+  <si>
+    <t>modificare box progetto in task</t>
+  </si>
+  <si>
+    <t>aggiungere ai box dei task la prioritÃ </t>
+  </si>
+  <si>
+    <t>mobile verificare colorPicker, editor (OK), listbox (mobile NO, webup NO con checkbox + problemi ctrl in mac)</t>
+  </si>
+  <si>
+    <t>validare implementazione di *CHECK</t>
+  </si>
+  <si>
+    <t>Rivedere in toto le procedure rilascio loocup</t>
+  </si>
+  <si>
+    <t>deviare ja_00_ cartelle e file nel caso di j8 e j9</t>
+  </si>
+  <si>
+    <t>WU3_01</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/17ClkDi_VNQH93mld-gPUJ112f17P_rmef1mk4lFQkC8/edit</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1Sud3aZ_qKknlbsrLTmAH16Tl-Bgcn0385_LbDmU-Zq4/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -194,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +600,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -283,11 +670,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -302,6 +717,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +1049,6 @@
     <col min="1" max="1" width="8.0" customWidth="true"/>
     <col min="2" max="2" width="8.0" customWidth="true"/>
     <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
     <col min="6" max="6" width="8.0" customWidth="true"/>
     <col min="7" max="7" width="8.0" customWidth="true"/>
     <col min="8" max="8" width="8.0" customWidth="true"/>
@@ -636,6 +1057,14 @@
     <col min="11" max="11" width="8.0" customWidth="true"/>
     <col min="12" max="12" width="8.0" customWidth="true"/>
     <col min="13" max="13" width="8.0" customWidth="true"/>
+    <col min="14" max="14" width="8.0" customWidth="true"/>
+    <col min="15" max="15" width="8.0" customWidth="true"/>
+    <col min="16" max="16" width="8.0" customWidth="true"/>
+    <col min="17" max="17" width="8.0" customWidth="true"/>
+    <col min="18" max="18" width="8.0" customWidth="true"/>
+    <col min="19" max="19" width="8.0" customWidth="true"/>
+    <col min="20" max="20" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
@@ -645,12 +1074,9 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="D2" s="0" t="s">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
@@ -663,31 +1089,29 @@
       <c r="C3" s="11" t="n">
         <v>-1.12</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3" s="13"/>
+      <c r="F3" s="17" t="n">
         <v>5.0</v>
       </c>
-      <c r="G3" t="n" s="0">
+      <c r="G3" t="n" s="17">
         <v>1.1</v>
       </c>
-      <c r="H3" t="n" s="0">
+      <c r="H3" t="n" s="17">
         <v>-1.12</v>
       </c>
-      <c r="I3" t="n" s="0">
+      <c r="I3" t="n" s="17">
         <v>-1.05</v>
       </c>
-      <c r="J3" t="n" s="0">
+      <c r="J3" t="n" s="17">
         <v>1.102</v>
       </c>
-      <c r="K3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n" s="0">
+      <c r="K3" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M3" t="n" s="0">
+      <c r="M3" t="n" s="17">
         <v>20.0</v>
       </c>
     </row>
@@ -701,35 +1125,32 @@
       <c r="C4" t="n" s="11">
         <v>-2.13</v>
       </c>
-      <c r="D4" t="n" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
+      <c r="F4" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n" s="0">
+      <c r="G4" t="n" s="17">
         <v>2.0</v>
       </c>
-      <c r="H4" t="n" s="0">
+      <c r="H4" t="n" s="17">
         <v>-2.13</v>
       </c>
-      <c r="I4" t="n" s="0">
+      <c r="I4" t="n" s="17">
         <v>-2.5</v>
       </c>
-      <c r="J4" t="n" s="0">
+      <c r="J4" t="n" s="17">
         <v>2.1</v>
       </c>
-      <c r="K4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="L4" t="n" s="0">
+      <c r="K4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n" s="17">
         <v>2.0</v>
       </c>
-      <c r="M4" t="n" s="0">
+      <c r="M4" t="n" s="17">
         <v>33.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="n">
         <v>1.0</v>
       </c>
@@ -739,31 +1160,28 @@
       <c r="C5" s="11" t="n">
         <v>-3.14</v>
       </c>
-      <c r="D5" t="n" s="13">
+      <c r="F5" s="17" t="n">
         <v>1.0</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
+      <c r="G5" t="n" s="17">
         <v>3.1</v>
       </c>
-      <c r="H5" t="n" s="0">
+      <c r="H5" t="n" s="17">
         <v>-3.14</v>
       </c>
-      <c r="I5" t="n" s="0">
+      <c r="I5" t="n" s="17">
         <v>-3.0</v>
       </c>
-      <c r="J5" t="n" s="0">
+      <c r="J5" t="n" s="17">
         <v>-3.12541</v>
       </c>
-      <c r="K5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="L5" t="n" s="0">
+      <c r="K5" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="L5" t="n" s="17">
         <v>3.0</v>
       </c>
-      <c r="M5" t="n" s="0">
+      <c r="M5" t="n" s="17">
         <v>0.0</v>
       </c>
     </row>
@@ -777,31 +1195,28 @@
       <c r="C6" s="11" t="n">
         <v>-4.15</v>
       </c>
-      <c r="D6" t="n" s="13">
+      <c r="F6" s="17" t="n">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n" s="0">
+      <c r="G6" t="n" s="17">
         <v>4.2</v>
       </c>
-      <c r="H6" t="n" s="0">
+      <c r="H6" t="n" s="17">
         <v>-4.15</v>
       </c>
-      <c r="I6" t="n" s="0">
+      <c r="I6" t="n" s="17">
         <v>-4.0</v>
       </c>
-      <c r="J6" t="n" s="0">
+      <c r="J6" t="n" s="17">
         <v>4.4</v>
       </c>
-      <c r="K6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="L6" t="n" s="0">
+      <c r="K6" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="L6" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M6" t="n" s="0">
+      <c r="M6" t="n" s="17">
         <v>0.0</v>
       </c>
     </row>
@@ -815,69 +1230,63 @@
       <c r="C7" t="n" s="11">
         <v>-12.16</v>
       </c>
-      <c r="D7" t="n" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F7" t="n" s="0">
+      <c r="F7" t="n" s="17">
         <v>2.0</v>
       </c>
-      <c r="G7" t="n" s="0">
+      <c r="G7" t="n" s="17">
         <v>12.0</v>
       </c>
-      <c r="H7" t="n" s="0">
+      <c r="H7" t="n" s="17">
         <v>-12.16</v>
       </c>
-      <c r="I7" t="n" s="0">
+      <c r="I7" t="n" s="17">
         <v>-12.0</v>
       </c>
-      <c r="J7" t="n" s="0">
+      <c r="J7" t="n" s="17">
         <v>12.12</v>
       </c>
-      <c r="K7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="L7" t="n" s="0">
+      <c r="K7" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="L7" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M7" t="n" s="0">
+      <c r="M7" t="n" s="17">
         <v>44.0</v>
       </c>
     </row>
-    <row r="8" ht="15.0" customHeight="true">
-      <c r="A8" t="n" s="11">
+    <row r="8" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A8" s="11" t="n">
         <v>2.0</v>
       </c>
-      <c r="B8" t="n" s="12">
+      <c r="B8" s="12" t="n">
         <v>13.4</v>
       </c>
       <c r="C8" t="n" s="11">
         <v>-13.0</v>
       </c>
-      <c r="D8" t="n" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
+      <c r="F8" s="17" t="n">
         <v>2.0</v>
       </c>
-      <c r="G8" t="n" s="0">
+      <c r="G8" t="n" s="17">
         <v>13.4</v>
       </c>
-      <c r="H8" t="n" s="0">
+      <c r="H8" t="n" s="17">
         <v>-13.0</v>
       </c>
-      <c r="I8" t="n" s="0">
+      <c r="I8" t="n" s="17">
         <v>-13.0</v>
       </c>
-      <c r="J8" t="n" s="0">
+      <c r="J8" t="n" s="17">
         <v>1.3123213012E7</v>
       </c>
-      <c r="K8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L8" t="n" s="0">
+      <c r="K8" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="L8" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M8" t="n" s="0">
+      <c r="M8" t="n" s="17">
         <v>66.0</v>
       </c>
     </row>
@@ -891,36 +1300,33 @@
       <c r="C9" t="n" s="11">
         <v>-14.01</v>
       </c>
-      <c r="D9" t="n" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
+      <c r="F9" s="17" t="n">
         <v>2.0</v>
       </c>
-      <c r="G9" t="n" s="0">
+      <c r="G9" t="n" s="17">
         <v>14.1</v>
       </c>
-      <c r="H9" t="n" s="0">
+      <c r="H9" t="n" s="17">
         <v>-14.01</v>
       </c>
-      <c r="I9" t="n" s="0">
+      <c r="I9" t="n" s="17">
         <v>-14.0</v>
       </c>
-      <c r="J9" t="n" s="0">
+      <c r="J9" t="n" s="17">
         <v>1123114.49</v>
       </c>
-      <c r="K9" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="L9" t="n" s="0">
+      <c r="K9" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="L9" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M9" t="n" s="0">
+      <c r="M9" t="n" s="17">
         <v>100.0</v>
       </c>
     </row>
-    <row r="10" ht="15.0" customHeight="true">
-      <c r="A10" t="n" s="11">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A10" s="11" t="n">
         <v>2.0</v>
       </c>
       <c r="B10" t="n" s="12">
@@ -929,31 +1335,28 @@
       <c r="C10" t="n" s="11">
         <v>-35.02</v>
       </c>
-      <c r="D10" t="n" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
+      <c r="F10" s="17" t="n">
         <v>2.0</v>
       </c>
-      <c r="G10" t="n" s="0">
+      <c r="G10" t="n" s="17">
         <v>35.0</v>
       </c>
-      <c r="H10" t="n" s="0">
+      <c r="H10" t="n" s="17">
         <v>-35.02</v>
       </c>
-      <c r="I10" t="n" s="0">
+      <c r="I10" t="n" s="17">
         <v>-35.0</v>
       </c>
-      <c r="J10" t="n" s="0">
+      <c r="J10" t="n" s="17">
         <v>1235.359</v>
       </c>
-      <c r="K10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="L10" t="n" s="0">
+      <c r="K10" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="L10" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M10" t="n" s="0">
+      <c r="M10" t="n" s="17">
         <v>1000.0</v>
       </c>
     </row>
@@ -967,31 +1370,28 @@
       <c r="C11" t="n" s="11">
         <v>-55.03</v>
       </c>
-      <c r="D11" t="n" s="13">
-        <v>50.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
+      <c r="F11" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="G11" t="n" s="0">
+      <c r="G11" t="n" s="17">
         <v>55.0</v>
       </c>
-      <c r="H11" t="n" s="0">
+      <c r="H11" t="n" s="17">
         <v>-55.03</v>
       </c>
-      <c r="I11" t="n" s="0">
+      <c r="I11" t="n" s="17">
         <v>-55.0</v>
       </c>
-      <c r="J11" t="n" s="0">
+      <c r="J11" t="n" s="17">
         <v>9955.0</v>
       </c>
-      <c r="K11" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="L11" t="n" s="0">
+      <c r="K11" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="L11" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M11" t="n" s="0">
+      <c r="M11" t="n" s="17">
         <v>55.22</v>
       </c>
     </row>
@@ -1005,40 +1405,33 @@
       <c r="C12" t="n" s="11">
         <v>-121.0</v>
       </c>
-      <c r="D12" t="n" s="13">
-        <v>101.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
+      <c r="F12" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="G12" t="n" s="0">
+      <c r="G12" t="n" s="17">
         <v>121.0</v>
       </c>
-      <c r="H12" t="n" s="0">
+      <c r="H12" t="n" s="17">
         <v>-121.0</v>
       </c>
-      <c r="I12" t="n" s="0">
+      <c r="I12" t="n" s="17">
         <v>-121.0</v>
       </c>
-      <c r="J12" t="n" s="0">
+      <c r="J12" t="n" s="17">
         <v>121.0</v>
       </c>
-      <c r="K12" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L12" t="n" s="0">
+      <c r="K12" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="L12" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M12" t="n" s="0">
+      <c r="M12" t="n" s="17">
         <v>20.11</v>
       </c>
     </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="D13" t="n" s="13">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
+    <row r="13" ht="15.0" customHeight="true"/>
+    <row r="14" ht="16.5" customHeight="true">
       <c r="A14" t="s" s="8">
         <v>1</v>
       </c>
@@ -1048,11 +1441,8 @@
       <c r="C14" s="10">
         <f>SUM(C3:C12)</f>
       </c>
-      <c r="D14" t="n" s="13">
-        <v>900.0</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>10</v>
+      <c r="F14" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
@@ -1063,315 +1453,1856 @@
       <c r="C15" s="7">
         <f>SUM(B14+C14)</f>
       </c>
-      <c r="F15" t="n" s="0">
+      <c r="F15" t="n" s="18">
         <v>3.0</v>
       </c>
-      <c r="G15" t="n" s="0">
+      <c r="G15" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" s="1"/>
+      <c r="F16" t="n" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="true">
+      <c r="A17" t="n" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="B17" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="true">
+      <c r="A18" t="n" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="B18" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="G18" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="true">
+      <c r="A19" t="n" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="true">
+      <c r="A20" t="n" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="G20" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="true">
+      <c r="A21" t="n" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F21" t="n" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="G21" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="true">
+      <c r="A22" t="n" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F22" t="n" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="G22" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="true">
+      <c r="A23" t="n" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F23" t="n" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="G23" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="true">
+      <c r="A24" t="n" s="15">
+        <v>15.0</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F24" t="n" s="18">
+        <v>101.0</v>
+      </c>
+      <c r="G24" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="H24" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="true">
+      <c r="A25" t="n" s="15">
+        <v>50.0</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F25" t="n" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="G25" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="H25" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="true">
+      <c r="A26" t="n" s="15">
+        <v>101.0</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F26" t="n" s="18">
+        <v>900.0</v>
+      </c>
+      <c r="G26" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="H26" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="15.0" customHeight="true">
+      <c r="A27" t="n" s="15">
+        <v>200.0</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="true">
+      <c r="A28" t="n" s="15">
+        <v>900.0</v>
+      </c>
+      <c r="B28" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="I15" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="true">
-      <c r="F16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H16" t="s" s="0">
+    </row>
+    <row r="29" ht="18.75" customHeight="true">
+      <c r="A29" s="2"/>
+      <c r="F29" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s" s="19">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="M29" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="O29" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s" s="19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="true">
+      <c r="A30" s="16">
+        <f>SUM(A17:A28)</f>
+      </c>
+      <c r="F30" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L30" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M30" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N30" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P30" t="s" s="20">
+        <v>92</v>
+      </c>
+      <c r="Q30" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S30" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T30" t="s" s="20">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="F31" t="s" s="20">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="I16" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="true">
-      <c r="F17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="s" s="0">
+      <c r="J31" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L31" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N31" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P31" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="Q31" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S31" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T31" t="s" s="20">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" ht="15.0" customHeight="true">
+      <c r="F32" t="s" s="20">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L32" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="N32" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n" s="20">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="P32" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="Q32" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R32" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S32" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T32" t="s" s="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="15.0" customHeight="true">
+      <c r="F33" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="15.0" customHeight="true">
-      <c r="F18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="s" s="0">
+      <c r="J33" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M33" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N33" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n" s="20">
+        <v>2.016021E7</v>
+      </c>
+      <c r="P33" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="Q33" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R33" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S33" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T33" t="s" s="20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="15.0" customHeight="true">
+      <c r="F34" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="N34" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n" s="20">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="P34" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="Q34" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R34" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S34" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T34" t="s" s="20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" ht="15.0" customHeight="true">
+      <c r="F35" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="J35" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L35" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M35" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N35" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P35" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="Q35" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S35" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T35" t="s" s="20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" ht="15.0" customHeight="true">
+      <c r="F36" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="I18" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="true">
-      <c r="F19" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H19" t="s" s="0">
+      <c r="J36" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L36" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N36" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P36" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S36" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="T36" t="s" s="20">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="15.0" customHeight="true">
+      <c r="F37" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="J37" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L37" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N37" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O37" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="P37" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="Q37" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R37" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S37" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T37" t="s" s="20">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" ht="15.0" customHeight="true">
+      <c r="F38" t="s" s="20">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="I19" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" ht="15.0" customHeight="true">
-      <c r="F20" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H20" t="s" s="0">
+      <c r="J38" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L38" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M38" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N38" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O38" t="n" s="20">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="P38" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="Q38" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R38" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S38" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T38" t="s" s="20">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" ht="15.0" customHeight="true">
+      <c r="F39" t="s" s="20">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L39" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M39" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N39" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="P39" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="Q39" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R39" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S39" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T39" t="s" s="20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="F40" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="L40" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M40" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N40" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P40" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="Q40" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="R40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S40" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T40" t="s" s="20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" ht="15.0" customHeight="true">
+      <c r="F41" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="I41" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="J41" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L41" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M41" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N41" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O41" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="P41" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="Q41" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R41" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S41" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T41" t="s" s="20">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" ht="15.0" customHeight="true">
+      <c r="F42" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="G42" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L42" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M42" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N42" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O42" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="P42" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="Q42" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R42" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S42" t="s" s="20">
+        <v>124</v>
+      </c>
+      <c r="T42" t="s" s="20">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="15.0" customHeight="true">
+      <c r="F43" t="s" s="20">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="J43" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L43" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M43" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N43" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O43" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="P43" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="Q43" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R43" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S43" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T43" t="s" s="20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" ht="15.0" customHeight="true">
+      <c r="F44" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L44" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M44" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N44" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P44" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="Q44" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S44" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T44" t="s" s="20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" ht="15.0" customHeight="true">
+      <c r="F45" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L45" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N45" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O45" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="P45" t="s" s="20">
+        <v>107</v>
+      </c>
+      <c r="Q45" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R45" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S45" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T45" t="s" s="20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" ht="15.0" customHeight="true">
+      <c r="F46" t="s" s="20">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L46" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M46" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N46" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P46" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="Q46" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S46" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T46" t="s" s="20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" ht="15.0" customHeight="true">
+      <c r="F47" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="15.0" customHeight="true">
-      <c r="F21" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="G21" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="15.0" customHeight="true">
-      <c r="F22" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="G22" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="15.0" customHeight="true">
-      <c r="F23" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="G23" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L23" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M23" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="15.0" customHeight="true">
-      <c r="F24" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="G24" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J24" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M24" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" ht="15.0" customHeight="true">
-      <c r="F25" t="n" s="0">
-        <v>200.0</v>
-      </c>
-      <c r="G25" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L25" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" ht="15.0" customHeight="true">
-      <c r="F26" t="n" s="0">
-        <v>900.0</v>
-      </c>
-      <c r="G26" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="H26" t="s" s="0">
+      <c r="J47" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L47" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M47" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N47" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P47" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="Q47" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S47" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T47" t="s" s="20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" ht="15.0" customHeight="true">
+      <c r="F48" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L48" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N48" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O48" t="n" s="20">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="P48" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="Q48" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R48" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S48" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T48" t="s" s="20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" ht="15.0" customHeight="true">
+      <c r="F49" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L49" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M49" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N49" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O49" t="n" s="20">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="P49" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="Q49" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R49" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S49" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T49" t="s" s="20">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" ht="15.0" customHeight="true">
+      <c r="F50" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="J50" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L50" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M50" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P50" t="s" s="20">
+        <v>112</v>
+      </c>
+      <c r="Q50" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S50" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T50" t="s" s="20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" ht="15.0" customHeight="true">
+      <c r="F51" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="I26" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M26" t="s" s="0">
-        <v>30</v>
+      <c r="J51" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L51" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M51" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N51" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n" s="20">
+        <v>2.016031E7</v>
+      </c>
+      <c r="P51" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="Q51" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R51" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S51" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T51" t="s" s="20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" ht="15.0" customHeight="true">
+      <c r="F52" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="G52" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L52" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M52" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N52" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P52" t="s" s="20">
+        <v>114</v>
+      </c>
+      <c r="Q52" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S52" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T52" t="s" s="20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" ht="15.0" customHeight="true">
+      <c r="F53" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="J53" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L53" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M53" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N53" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P53" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="Q53" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S53" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T53" t="s" s="20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" ht="15.0" customHeight="true">
+      <c r="F54" t="s" s="20">
+        <v>72</v>
+      </c>
+      <c r="G54" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L54" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M54" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N54" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P54" t="s" s="20">
+        <v>116</v>
+      </c>
+      <c r="Q54" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S54" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T54" t="s" s="20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" ht="15.0" customHeight="true">
+      <c r="F55" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L55" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M55" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="N55" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P55" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="Q55" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S55" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T55" t="s" s="20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" ht="15.0" customHeight="true">
+      <c r="F56" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L56" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M56" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N56" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O56" t="n" s="20">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="P56" t="s" s="20">
+        <v>118</v>
+      </c>
+      <c r="Q56" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R56" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S56" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T56" t="s" s="20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" ht="15.0" customHeight="true">
+      <c r="F57" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="20">
+        <v>23</v>
+      </c>
+      <c r="J57" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="L57" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M57" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N57" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="P57" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="Q57" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S57" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T57" t="s" s="20">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" ht="15.0" customHeight="true">
+      <c r="F58" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="L58" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M58" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="N58" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O58" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="P58" t="s" s="20">
+        <v>120</v>
+      </c>
+      <c r="Q58" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R58" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S58" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T58" t="s" s="20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" ht="15.0" customHeight="true">
+      <c r="F59" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="L59" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="N59" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="O59" t="n" s="20">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="P59" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="Q59" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="R59" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="S59" t="s" s="20">
+        <v>13</v>
+      </c>
+      <c r="T59" t="s" s="20">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6DBEB5-B50C-456D-B624-47BF0930E9AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E70C12-1343-4F15-A959-611207333FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="570" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="157">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>${headers.getTxt()}</t>
+  </si>
+  <si>
+    <t>Colonne prima grid:</t>
+  </si>
+  <si>
+    <t>Colonne seconda grid:</t>
   </si>
   <si>
     <t/>
@@ -607,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -692,17 +698,28 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -722,8 +739,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,7 +1059,7 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1093,9 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>1.102</v>
       </c>
       <c r="K3" t="s" s="17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n" s="17">
         <v>1.0</v>
@@ -1141,7 +1162,7 @@
         <v>2.1</v>
       </c>
       <c r="K4" t="s" s="17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n" s="17">
         <v>2.0</v>
@@ -1176,7 +1197,7 @@
         <v>-3.12541</v>
       </c>
       <c r="K5" t="s" s="17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n" s="17">
         <v>3.0</v>
@@ -1211,7 +1232,7 @@
         <v>4.4</v>
       </c>
       <c r="K6" t="s" s="17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" t="n" s="17">
         <v>1.0</v>
@@ -1246,7 +1267,7 @@
         <v>12.12</v>
       </c>
       <c r="K7" t="s" s="17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L7" t="n" s="17">
         <v>1.0</v>
@@ -1281,7 +1302,7 @@
         <v>1.3123213012E7</v>
       </c>
       <c r="K8" t="s" s="17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n" s="17">
         <v>1.0</v>
@@ -1316,7 +1337,7 @@
         <v>1123114.49</v>
       </c>
       <c r="K9" t="s" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" t="n" s="17">
         <v>1.0</v>
@@ -1351,7 +1372,7 @@
         <v>1235.359</v>
       </c>
       <c r="K10" t="s" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n" s="17">
         <v>1.0</v>
@@ -1386,7 +1407,7 @@
         <v>9955.0</v>
       </c>
       <c r="K11" t="s" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="n" s="17">
         <v>1.0</v>
@@ -1421,7 +1442,7 @@
         <v>121.0</v>
       </c>
       <c r="K12" t="s" s="17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n" s="17">
         <v>1.0</v>
@@ -1460,26 +1481,28 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" s="1"/>
+      <c r="A16" t="s" s="1">
+        <v>14</v>
+      </c>
       <c r="F16" t="n" s="18">
         <v>0.0</v>
       </c>
@@ -1487,22 +1510,22 @@
         <v>1.0</v>
       </c>
       <c r="H16" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="true">
@@ -1510,7 +1533,7 @@
         <v>3.0</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n" s="18">
         <v>1.0</v>
@@ -1519,22 +1542,22 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="true">
@@ -1542,7 +1565,7 @@
         <v>0.0</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" t="n" s="18">
         <v>2.0</v>
@@ -1551,22 +1574,22 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="true">
@@ -1574,7 +1597,7 @@
         <v>1.0</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n" s="18">
         <v>3.0</v>
@@ -1583,22 +1606,22 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K19" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="true">
@@ -1606,7 +1629,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F20" t="n" s="18">
         <v>5.0</v>
@@ -1615,22 +1638,22 @@
         <v>1.0</v>
       </c>
       <c r="H20" t="s" s="18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="true">
@@ -1638,7 +1661,7 @@
         <v>3.0</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n" s="18">
         <v>10.0</v>
@@ -1647,22 +1670,22 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M21" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="true">
@@ -1670,7 +1693,7 @@
         <v>5.0</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n" s="18">
         <v>15.0</v>
@@ -1679,22 +1702,22 @@
         <v>1.0</v>
       </c>
       <c r="H22" t="s" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M22" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="true">
@@ -1702,7 +1725,7 @@
         <v>10.0</v>
       </c>
       <c r="B23" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n" s="18">
         <v>50.0</v>
@@ -1711,22 +1734,22 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s" s="18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="true">
@@ -1734,7 +1757,7 @@
         <v>15.0</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n" s="18">
         <v>101.0</v>
@@ -1743,22 +1766,22 @@
         <v>60.0</v>
       </c>
       <c r="H24" t="s" s="18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I24" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K24" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M24" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="true">
@@ -1766,7 +1789,7 @@
         <v>50.0</v>
       </c>
       <c r="B25" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n" s="18">
         <v>200.0</v>
@@ -1775,22 +1798,22 @@
         <v>60.0</v>
       </c>
       <c r="H25" t="s" s="18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K25" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="true">
@@ -1798,7 +1821,7 @@
         <v>101.0</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n" s="18">
         <v>900.0</v>
@@ -1807,22 +1830,22 @@
         <v>60.0</v>
       </c>
       <c r="H26" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K26" t="s" s="18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M26" t="s" s="18">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="true">
@@ -1830,7 +1853,7 @@
         <v>200.0</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="true">
@@ -1838,58 +1861,58 @@
         <v>900.0</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="true">
       <c r="A29" s="2"/>
-      <c r="F29" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s" s="19">
+      <c r="F29" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="I29" t="s" s="19">
+      <c r="G29" t="s" s="21">
         <v>36</v>
       </c>
-      <c r="J29" t="s" s="19">
+      <c r="H29" t="s" s="21">
         <v>37</v>
       </c>
-      <c r="K29" t="s" s="19">
+      <c r="I29" t="s" s="21">
         <v>38</v>
       </c>
-      <c r="L29" t="s" s="19">
+      <c r="J29" t="s" s="21">
         <v>39</v>
       </c>
-      <c r="M29" t="s" s="19">
+      <c r="K29" t="s" s="21">
         <v>40</v>
       </c>
-      <c r="N29" t="s" s="19">
+      <c r="L29" t="s" s="21">
         <v>41</v>
       </c>
-      <c r="O29" t="s" s="19">
+      <c r="M29" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="P29" t="s" s="19">
+      <c r="N29" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="Q29" t="s" s="19">
+      <c r="O29" t="s" s="21">
         <v>44</v>
       </c>
-      <c r="R29" t="s" s="19">
+      <c r="P29" t="s" s="21">
         <v>45</v>
       </c>
-      <c r="S29" t="s" s="19">
+      <c r="Q29" t="s" s="21">
         <v>46</v>
       </c>
-      <c r="T29" t="s" s="19">
+      <c r="R29" t="s" s="21">
         <v>47</v>
+      </c>
+      <c r="S29" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="T29" t="s" s="21">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
@@ -1897,1412 +1920,1412 @@
         <f>SUM(A17:A28)</f>
       </c>
       <c r="F30" t="s" s="20">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N30" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P30" t="s" s="20">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q30" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R30" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S30" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T30" t="s" s="20">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="F31" t="s" s="20">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K31" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M31" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N31" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P31" t="s" s="20">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q31" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R31" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S31" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T31" t="s" s="20">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="F32" t="s" s="20">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K32" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M32" t="s" s="20">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N32" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n" s="20">
         <v>2.0160301E7</v>
       </c>
       <c r="P32" t="s" s="20">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q32" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R32" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S32" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T32" t="s" s="20">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="F33" t="s" s="20">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J33" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M33" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N33" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n" s="20">
         <v>2.016021E7</v>
       </c>
       <c r="P33" t="s" s="20">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q33" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R33" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S33" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T33" t="s" s="20">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="F34" t="s" s="20">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s" s="20">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M34" t="s" s="20">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N34" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n" s="20">
         <v>2.0160222E7</v>
       </c>
       <c r="P34" t="s" s="20">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q34" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R34" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S34" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T34" t="s" s="20">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="F35" t="s" s="20">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K35" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M35" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N35" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P35" t="s" s="20">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q35" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R35" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S35" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T35" t="s" s="20">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="F36" t="s" s="20">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K36" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L36" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M36" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N36" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P36" t="s" s="20">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R36" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S36" t="s" s="20">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T36" t="s" s="20">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="F37" t="s" s="20">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s" s="20">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="20">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s" s="20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K37" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M37" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N37" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O37" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
       <c r="P37" t="s" s="20">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q37" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R37" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S37" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T37" t="s" s="20">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="F38" t="s" s="20">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K38" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M38" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N38" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n" s="20">
         <v>2.0160211E7</v>
       </c>
       <c r="P38" t="s" s="20">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q38" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R38" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S38" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T38" t="s" s="20">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="F39" t="s" s="20">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J39" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K39" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M39" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N39" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
       <c r="P39" t="s" s="20">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q39" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R39" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S39" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T39" t="s" s="20">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="F40" t="s" s="20">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L40" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M40" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N40" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P40" t="s" s="20">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q40" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R40" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S40" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T40" t="s" s="20">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="F41" t="s" s="20">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s" s="20">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="20">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="20">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K41" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M41" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N41" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O41" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
       <c r="P41" t="s" s="20">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q41" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R41" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S41" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T41" t="s" s="20">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="F42" t="s" s="20">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s" s="20">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="20">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s" s="20">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K42" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L42" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M42" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N42" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O42" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
       <c r="P42" t="s" s="20">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q42" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R42" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S42" t="s" s="20">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T42" t="s" s="20">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="F43" t="s" s="20">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s" s="20">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K43" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L43" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M43" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N43" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
       <c r="P43" t="s" s="20">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q43" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R43" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S43" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T43" t="s" s="20">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="F44" t="s" s="20">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K44" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M44" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N44" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P44" t="s" s="20">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q44" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R44" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S44" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T44" t="s" s="20">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="F45" t="s" s="20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K45" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M45" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N45" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
       <c r="P45" t="s" s="20">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q45" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R45" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S45" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T45" t="s" s="20">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="F46" t="s" s="20">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M46" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N46" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O46" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P46" t="s" s="20">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q46" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R46" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S46" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T46" t="s" s="20">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="F47" t="s" s="20">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s" s="20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K47" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M47" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N47" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O47" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P47" t="s" s="20">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q47" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R47" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S47" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T47" t="s" s="20">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="F48" t="s" s="20">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M48" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N48" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O48" t="n" s="20">
         <v>2.0160212E7</v>
       </c>
       <c r="P48" t="s" s="20">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q48" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R48" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S48" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T48" t="s" s="20">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="F49" t="s" s="20">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s" s="20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K49" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M49" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N49" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n" s="20">
         <v>2.0160211E7</v>
       </c>
       <c r="P49" t="s" s="20">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q49" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R49" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S49" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T49" t="s" s="20">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="F50" t="s" s="20">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M50" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N50" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O50" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P50" t="s" s="20">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q50" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R50" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S50" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T50" t="s" s="20">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
       <c r="F51" t="s" s="20">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M51" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N51" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O51" t="n" s="20">
         <v>2.016031E7</v>
       </c>
       <c r="P51" t="s" s="20">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q51" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R51" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S51" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T51" t="s" s="20">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
       <c r="F52" t="s" s="20">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s" s="20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J52" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K52" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M52" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N52" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P52" t="s" s="20">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q52" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R52" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S52" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T52" t="s" s="20">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="true">
       <c r="F53" t="s" s="20">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="20">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K53" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M53" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N53" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P53" t="s" s="20">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q53" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R53" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S53" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T53" t="s" s="20">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="true">
       <c r="F54" t="s" s="20">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K54" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M54" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N54" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P54" t="s" s="20">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q54" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R54" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S54" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T54" t="s" s="20">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
       <c r="F55" t="s" s="20">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K55" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M55" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N55" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O55" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P55" t="s" s="20">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q55" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R55" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S55" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T55" t="s" s="20">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
       <c r="F56" t="s" s="20">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="20">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="20">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s" s="20">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K56" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M56" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N56" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O56" t="n" s="20">
         <v>2.0160301E7</v>
       </c>
       <c r="P56" t="s" s="20">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q56" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R56" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S56" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T56" t="s" s="20">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="true">
       <c r="F57" t="s" s="20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="20">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s" s="20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K57" t="s" s="20">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M57" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N57" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="P57" t="s" s="20">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q57" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R57" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S57" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T57" t="s" s="20">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
       <c r="F58" t="s" s="20">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K58" t="s" s="20">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L58" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M58" t="s" s="20">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N58" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O58" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
       <c r="P58" t="s" s="20">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q58" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R58" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S58" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T58" t="s" s="20">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
       <c r="F59" t="s" s="20">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="20">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K59" t="s" s="20">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L59" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M59" t="s" s="20">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N59" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n" s="20">
         <v>2.0160208E7</v>
       </c>
       <c r="P59" t="s" s="20">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q59" t="s" s="20">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R59" t="n" s="20">
         <v>2.0160204E7</v>
       </c>
       <c r="S59" t="s" s="20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T59" t="s" s="20">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E70C12-1343-4F15-A959-611207333FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC49530-3A04-43FB-8747-3B46B1483761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2850" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="157">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -1056,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,22 +1093,13 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A3" s="11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B3" s="12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C3" s="11" t="n">
-        <v>-1.12</v>
+      <c r="A3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="13"/>
       <c r="F3" s="17" t="n">
@@ -1136,15 +1127,15 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" t="n" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="B4" t="n" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n" s="11">
-        <v>-2.13</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A4" s="11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>-1.12</v>
       </c>
       <c r="F4" t="n" s="17">
         <v>1.0</v>
@@ -1172,14 +1163,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.0" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="n">
+      <c r="A5" t="n" s="11">
         <v>1.0</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>-3.14</v>
+      <c r="B5" t="n" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n" s="11">
+        <v>-2.13</v>
       </c>
       <c r="F5" s="17" t="n">
         <v>1.0</v>
@@ -1208,13 +1199,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A6" s="11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" s="12" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="C6" s="11" t="n">
-        <v>-4.15</v>
+        <v>-3.14</v>
       </c>
       <c r="F6" s="17" t="n">
         <v>2.0</v>
@@ -1245,11 +1236,11 @@
       <c r="A7" s="11" t="n">
         <v>2.0</v>
       </c>
-      <c r="B7" t="n" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="C7" t="n" s="11">
-        <v>-12.16</v>
+      <c r="B7" s="12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>-4.15</v>
       </c>
       <c r="F7" t="n" s="17">
         <v>2.0</v>
@@ -1277,14 +1268,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A8" s="11" t="n">
+      <c r="A8" t="n" s="11">
         <v>2.0</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>13.4</v>
+      <c r="B8" t="n" s="12">
+        <v>12.0</v>
       </c>
       <c r="C8" t="n" s="11">
-        <v>-13.0</v>
+        <v>-12.16</v>
       </c>
       <c r="F8" s="17" t="n">
         <v>2.0</v>
@@ -1311,15 +1302,15 @@
         <v>66.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A9" s="11" t="n">
         <v>2.0</v>
       </c>
       <c r="B9" t="n" s="12">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="C9" t="n" s="11">
-        <v>-14.01</v>
+        <v>-13.0</v>
       </c>
       <c r="F9" s="17" t="n">
         <v>2.0</v>
@@ -1350,11 +1341,11 @@
       <c r="A10" s="11" t="n">
         <v>2.0</v>
       </c>
-      <c r="B10" t="n" s="12">
-        <v>35.0</v>
+      <c r="B10" s="12" t="n">
+        <v>14.1</v>
       </c>
       <c r="C10" t="n" s="11">
-        <v>-35.02</v>
+        <v>-14.01</v>
       </c>
       <c r="F10" s="17" t="n">
         <v>2.0</v>
@@ -1381,15 +1372,15 @@
         <v>1000.0</v>
       </c>
     </row>
-    <row r="11" ht="15.0" customHeight="true">
-      <c r="A11" t="n" s="11">
-        <v>1.0</v>
+    <row r="11" spans="1:6" ht="15.0" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A11" s="11" t="n">
+        <v>2.0</v>
       </c>
       <c r="B11" t="n" s="12">
-        <v>55.0</v>
+        <v>35.0</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>-55.03</v>
+        <v>-35.02</v>
       </c>
       <c r="F11" t="n" s="17">
         <v>1.0</v>
@@ -1416,15 +1407,15 @@
         <v>55.22</v>
       </c>
     </row>
-    <row r="12" ht="15.0" customHeight="true">
-      <c r="A12" t="n" s="11">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A12" s="11" t="n">
         <v>1.0</v>
       </c>
       <c r="B12" t="n" s="12">
-        <v>121.0</v>
+        <v>55.0</v>
       </c>
       <c r="C12" t="n" s="11">
-        <v>-121.0</v>
+        <v>-55.03</v>
       </c>
       <c r="F12" t="n" s="17">
         <v>1.0</v>
@@ -1451,28 +1442,31 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="13" ht="15.0" customHeight="true"/>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="12">
+        <v>121.0</v>
+      </c>
+      <c r="C13" t="n" s="11">
+        <v>-121.0</v>
+      </c>
+    </row>
     <row r="14" ht="16.5" customHeight="true">
-      <c r="A14" t="s" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9">
-        <f>SUM(B3:B12)</f>
-      </c>
-      <c r="C14" s="10">
-        <f>SUM(C3:C12)</f>
-      </c>
       <c r="F14" t="s" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7">
-        <f>SUM(B14+C14)</f>
+      <c r="A15" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <f>SUM(B4:B13)</f>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C4:C13)</f>
       </c>
       <c r="F15" t="n" s="18">
         <v>3.0</v>
@@ -1500,8 +1494,12 @@
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="s" s="1">
-        <v>14</v>
+      <c r="A16" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7">
+        <f>SUM(B15+C15)</f>
       </c>
       <c r="F16" t="n" s="18">
         <v>0.0</v>
@@ -1528,13 +1526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="true">
-      <c r="A17" t="n" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="B17" t="s" s="14">
-        <v>31</v>
-      </c>
+    <row r="17" ht="15.0" customHeight="true">
       <c r="F17" t="n" s="18">
         <v>1.0</v>
       </c>
@@ -1560,12 +1552,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="true">
-      <c r="A18" t="n" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="B18" t="s" s="14">
-        <v>31</v>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="A18" t="s" s="1">
+        <v>14</v>
       </c>
       <c r="F18" t="n" s="18">
         <v>2.0</v>
@@ -1592,9 +1581,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="true">
+    <row r="19" ht="15.0" customHeight="true">
       <c r="A19" t="n" s="15">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B19" t="s" s="14">
         <v>31</v>
@@ -1624,9 +1613,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="true">
+    <row r="20" ht="15.0" customHeight="true">
       <c r="A20" t="n" s="15">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>31</v>
@@ -1656,9 +1645,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="true">
+    <row r="21" ht="15.0" customHeight="true">
       <c r="A21" t="n" s="15">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B21" t="s" s="14">
         <v>31</v>
@@ -1688,9 +1677,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="true">
+    <row r="22" ht="15.0" customHeight="true">
       <c r="A22" t="n" s="15">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>31</v>
@@ -1720,9 +1709,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="true">
+    <row r="23" ht="15.0" customHeight="true">
       <c r="A23" t="n" s="15">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>31</v>
@@ -1752,9 +1741,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="true">
+    <row r="24" ht="15.0" customHeight="true">
       <c r="A24" t="n" s="15">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>31</v>
@@ -1784,9 +1773,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="true">
+    <row r="25" ht="15.0" customHeight="true">
       <c r="A25" t="n" s="15">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>31</v>
@@ -1816,9 +1805,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="true">
+    <row r="26" ht="15.0" customHeight="true">
       <c r="A26" t="n" s="15">
-        <v>101.0</v>
+        <v>15.0</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>31</v>
@@ -1850,7 +1839,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" t="n" s="15">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>31</v>
@@ -1858,7 +1847,7 @@
     </row>
     <row r="28" ht="18.75" customHeight="true">
       <c r="A28" t="n" s="15">
-        <v>900.0</v>
+        <v>101.0</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>31</v>
@@ -1867,8 +1856,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="true">
-      <c r="A29" s="2"/>
+    <row r="29" ht="15.0" customHeight="true">
+      <c r="A29" t="n" s="15">
+        <v>200.0</v>
+      </c>
+      <c r="B29" t="s" s="14">
+        <v>31</v>
+      </c>
       <c r="F29" t="s" s="21">
         <v>35</v>
       </c>
@@ -1916,8 +1910,11 @@
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
-      <c r="A30" s="16">
-        <f>SUM(A17:A28)</f>
+      <c r="A30" t="n" s="15">
+        <v>900.0</v>
+      </c>
+      <c r="B30" t="s" s="14">
+        <v>31</v>
       </c>
       <c r="F30" t="s" s="20">
         <v>50</v>
@@ -1966,6 +1963,7 @@
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
+      <c r="A31" s="2"/>
       <c r="F31" t="s" s="20">
         <v>51</v>
       </c>
@@ -2013,6 +2011,9 @@
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
+      <c r="A32" s="16">
+        <f>SUM(A19:A30)</f>
+      </c>
       <c r="F32" t="s" s="20">
         <v>52</v>
       </c>
@@ -3328,6 +3329,8 @@
         <v>156</v>
       </c>
     </row>
+    <row r="60" ht="18.75" customHeight="true"/>
+    <row r="61" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC49530-3A04-43FB-8747-3B46B1483761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A62406-C118-4ADA-970B-DF0C58ED42D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A62406-C118-4ADA-970B-DF0C58ED42D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D18EF24-13E6-4914-9A9F-50804E537664}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="142">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -145,51 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve"> PROVA 4</t>
-  </si>
-  <si>
-    <t>Nr.|Record</t>
-  </si>
-  <si>
-    <t>Tipo|progetto</t>
-  </si>
-  <si>
-    <t>Descrizione|progetto</t>
-  </si>
-  <si>
-    <t>Utente|assegnatario</t>
-  </si>
-  <si>
-    <t>Descrizione|utente</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>Descrizione|stato</t>
-  </si>
-  <si>
-    <t>PrioritÃ </t>
-  </si>
-  <si>
-    <t>Descrizione|prioritÃ </t>
-  </si>
-  <si>
-    <t>Data|assegnazione</t>
-  </si>
-  <si>
-    <t>Descrizione|task</t>
-  </si>
-  <si>
-    <t>Utente|inserimento</t>
-  </si>
-  <si>
-    <t>Data|inserimento</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>RRN</t>
   </si>
   <si>
     <t>0000000072</t>
@@ -1056,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50C156-C18D-4E7B-9E1F-E41DE5403C8D}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,6 +1037,21 @@
     <col min="18" max="18" width="8.0" customWidth="true"/>
     <col min="19" max="19" width="8.0" customWidth="true"/>
     <col min="20" max="20" width="8.0" customWidth="true"/>
+    <col min="21" max="21" width="8.0" customWidth="true"/>
+    <col min="22" max="22" width="8.0" customWidth="true"/>
+    <col min="23" max="23" width="8.0" customWidth="true"/>
+    <col min="24" max="24" width="8.0" customWidth="true"/>
+    <col min="25" max="25" width="8.0" customWidth="true"/>
+    <col min="26" max="26" width="8.0" customWidth="true"/>
+    <col min="27" max="27" width="8.0" customWidth="true"/>
+    <col min="28" max="28" width="8.0" customWidth="true"/>
+    <col min="29" max="29" width="8.0" customWidth="true"/>
+    <col min="30" max="30" width="8.0" customWidth="true"/>
+    <col min="31" max="31" width="8.0" customWidth="true"/>
+    <col min="32" max="32" width="8.0" customWidth="true"/>
+    <col min="33" max="33" width="8.0" customWidth="true"/>
+    <col min="34" max="34" width="8.0" customWidth="true"/>
+    <col min="35" max="35" width="8.0" customWidth="true"/>
     <col min="4" max="4" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1106,24 +1076,48 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="H3" t="n" s="17">
         <v>1.1</v>
       </c>
-      <c r="H3" t="n" s="17">
+      <c r="I3" t="n" s="17">
+        <v>1.1</v>
+      </c>
+      <c r="J3" t="n" s="17">
         <v>-1.12</v>
       </c>
-      <c r="I3" t="n" s="17">
+      <c r="K3" t="n" s="17">
+        <v>-1.12</v>
+      </c>
+      <c r="L3" t="n" s="17">
         <v>-1.05</v>
       </c>
-      <c r="J3" t="n" s="17">
+      <c r="M3" t="n" s="17">
+        <v>-1.05</v>
+      </c>
+      <c r="N3" t="n" s="17">
         <v>1.102</v>
       </c>
-      <c r="K3" t="s" s="17">
+      <c r="O3" t="n" s="17">
+        <v>1.102</v>
+      </c>
+      <c r="P3" t="s" s="17">
         <v>16</v>
       </c>
-      <c r="L3" t="n" s="17">
+      <c r="Q3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="R3" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M3" t="n" s="17">
+      <c r="S3" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T3" t="n" s="17">
+        <v>20.0</v>
+      </c>
+      <c r="U3" t="n" s="17">
         <v>20.0</v>
       </c>
     </row>
@@ -1141,24 +1135,48 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="17">
         <v>2.0</v>
       </c>
-      <c r="H4" t="n" s="17">
+      <c r="I4" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="J4" t="n" s="17">
         <v>-2.13</v>
       </c>
-      <c r="I4" t="n" s="17">
+      <c r="K4" t="n" s="17">
+        <v>-2.13</v>
+      </c>
+      <c r="L4" t="n" s="17">
         <v>-2.5</v>
       </c>
-      <c r="J4" t="n" s="17">
+      <c r="M4" t="n" s="17">
+        <v>-2.5</v>
+      </c>
+      <c r="N4" t="n" s="17">
         <v>2.1</v>
       </c>
-      <c r="K4" t="s" s="17">
+      <c r="O4" t="n" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="P4" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="L4" t="n" s="17">
+      <c r="Q4" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="R4" t="n" s="17">
         <v>2.0</v>
       </c>
-      <c r="M4" t="n" s="17">
+      <c r="S4" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="T4" t="n" s="17">
+        <v>33.3</v>
+      </c>
+      <c r="U4" t="n" s="17">
         <v>33.3</v>
       </c>
     </row>
@@ -1176,24 +1194,48 @@
         <v>1.0</v>
       </c>
       <c r="G5" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="17">
         <v>3.1</v>
       </c>
-      <c r="H5" t="n" s="17">
+      <c r="I5" t="n" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n" s="17">
         <v>-3.14</v>
       </c>
-      <c r="I5" t="n" s="17">
+      <c r="K5" t="n" s="17">
+        <v>-3.14</v>
+      </c>
+      <c r="L5" t="n" s="17">
         <v>-3.0</v>
       </c>
-      <c r="J5" t="n" s="17">
+      <c r="M5" t="n" s="17">
+        <v>-3.0</v>
+      </c>
+      <c r="N5" t="n" s="17">
         <v>-3.12541</v>
       </c>
-      <c r="K5" t="s" s="17">
+      <c r="O5" t="n" s="17">
+        <v>-3.12541</v>
+      </c>
+      <c r="P5" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="L5" t="n" s="17">
+      <c r="Q5" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="R5" t="n" s="17">
         <v>3.0</v>
       </c>
-      <c r="M5" t="n" s="17">
+      <c r="S5" t="n" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="T5" t="n" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n" s="17">
         <v>0.0</v>
       </c>
     </row>
@@ -1211,24 +1253,48 @@
         <v>2.0</v>
       </c>
       <c r="G6" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n" s="17">
         <v>4.2</v>
       </c>
-      <c r="H6" t="n" s="17">
+      <c r="I6" t="n" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="J6" t="n" s="17">
         <v>-4.15</v>
       </c>
-      <c r="I6" t="n" s="17">
+      <c r="K6" t="n" s="17">
+        <v>-4.15</v>
+      </c>
+      <c r="L6" t="n" s="17">
         <v>-4.0</v>
       </c>
-      <c r="J6" t="n" s="17">
+      <c r="M6" t="n" s="17">
+        <v>-4.0</v>
+      </c>
+      <c r="N6" t="n" s="17">
         <v>4.4</v>
       </c>
-      <c r="K6" t="s" s="17">
+      <c r="O6" t="n" s="17">
+        <v>4.4</v>
+      </c>
+      <c r="P6" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="L6" t="n" s="17">
+      <c r="Q6" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="R6" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M6" t="n" s="17">
+      <c r="S6" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T6" t="n" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n" s="17">
         <v>0.0</v>
       </c>
     </row>
@@ -1246,24 +1312,48 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n" s="17">
         <v>12.0</v>
       </c>
-      <c r="H7" t="n" s="17">
+      <c r="I7" t="n" s="17">
+        <v>12.0</v>
+      </c>
+      <c r="J7" t="n" s="17">
         <v>-12.16</v>
       </c>
-      <c r="I7" t="n" s="17">
+      <c r="K7" t="n" s="17">
+        <v>-12.16</v>
+      </c>
+      <c r="L7" t="n" s="17">
         <v>-12.0</v>
       </c>
-      <c r="J7" t="n" s="17">
+      <c r="M7" t="n" s="17">
+        <v>-12.0</v>
+      </c>
+      <c r="N7" t="n" s="17">
         <v>12.12</v>
       </c>
-      <c r="K7" t="s" s="17">
+      <c r="O7" t="n" s="17">
+        <v>12.12</v>
+      </c>
+      <c r="P7" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="L7" t="n" s="17">
+      <c r="Q7" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="R7" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M7" t="n" s="17">
+      <c r="S7" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T7" t="n" s="17">
+        <v>44.0</v>
+      </c>
+      <c r="U7" t="n" s="17">
         <v>44.0</v>
       </c>
     </row>
@@ -1281,24 +1371,48 @@
         <v>2.0</v>
       </c>
       <c r="G8" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n" s="17">
         <v>13.4</v>
       </c>
-      <c r="H8" t="n" s="17">
+      <c r="I8" t="n" s="17">
+        <v>13.4</v>
+      </c>
+      <c r="J8" t="n" s="17">
         <v>-13.0</v>
       </c>
-      <c r="I8" t="n" s="17">
+      <c r="K8" t="n" s="17">
         <v>-13.0</v>
       </c>
-      <c r="J8" t="n" s="17">
+      <c r="L8" t="n" s="17">
+        <v>-13.0</v>
+      </c>
+      <c r="M8" t="n" s="17">
+        <v>-13.0</v>
+      </c>
+      <c r="N8" t="n" s="17">
         <v>1.3123213012E7</v>
       </c>
-      <c r="K8" t="s" s="17">
+      <c r="O8" t="n" s="17">
+        <v>1.3123213012E7</v>
+      </c>
+      <c r="P8" t="s" s="17">
         <v>21</v>
       </c>
-      <c r="L8" t="n" s="17">
+      <c r="Q8" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="R8" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M8" t="n" s="17">
+      <c r="S8" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n" s="17">
+        <v>66.0</v>
+      </c>
+      <c r="U8" t="n" s="17">
         <v>66.0</v>
       </c>
     </row>
@@ -1316,24 +1430,48 @@
         <v>2.0</v>
       </c>
       <c r="G9" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n" s="17">
         <v>14.1</v>
       </c>
-      <c r="H9" t="n" s="17">
+      <c r="I9" t="n" s="17">
+        <v>14.1</v>
+      </c>
+      <c r="J9" t="n" s="17">
         <v>-14.01</v>
       </c>
-      <c r="I9" t="n" s="17">
+      <c r="K9" t="n" s="17">
+        <v>-14.01</v>
+      </c>
+      <c r="L9" t="n" s="17">
         <v>-14.0</v>
       </c>
-      <c r="J9" t="n" s="17">
+      <c r="M9" t="n" s="17">
+        <v>-14.0</v>
+      </c>
+      <c r="N9" t="n" s="17">
         <v>1123114.49</v>
       </c>
-      <c r="K9" t="s" s="17">
+      <c r="O9" t="n" s="17">
+        <v>1123114.49</v>
+      </c>
+      <c r="P9" t="s" s="17">
         <v>22</v>
       </c>
-      <c r="L9" t="n" s="17">
+      <c r="Q9" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="R9" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M9" t="n" s="17">
+      <c r="S9" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T9" t="n" s="17">
+        <v>100.0</v>
+      </c>
+      <c r="U9" t="n" s="17">
         <v>100.0</v>
       </c>
     </row>
@@ -1351,24 +1489,48 @@
         <v>2.0</v>
       </c>
       <c r="G10" t="n" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H10" t="n" s="17">
         <v>35.0</v>
       </c>
-      <c r="H10" t="n" s="17">
+      <c r="I10" t="n" s="17">
+        <v>35.0</v>
+      </c>
+      <c r="J10" t="n" s="17">
         <v>-35.02</v>
       </c>
-      <c r="I10" t="n" s="17">
+      <c r="K10" t="n" s="17">
+        <v>-35.02</v>
+      </c>
+      <c r="L10" t="n" s="17">
         <v>-35.0</v>
       </c>
-      <c r="J10" t="n" s="17">
+      <c r="M10" t="n" s="17">
+        <v>-35.0</v>
+      </c>
+      <c r="N10" t="n" s="17">
         <v>1235.359</v>
       </c>
-      <c r="K10" t="s" s="17">
+      <c r="O10" t="n" s="17">
+        <v>1235.359</v>
+      </c>
+      <c r="P10" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="L10" t="n" s="17">
+      <c r="Q10" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="R10" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M10" t="n" s="17">
+      <c r="S10" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T10" t="n" s="17">
+        <v>1000.0</v>
+      </c>
+      <c r="U10" t="n" s="17">
         <v>1000.0</v>
       </c>
     </row>
@@ -1386,24 +1548,48 @@
         <v>1.0</v>
       </c>
       <c r="G11" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n" s="17">
         <v>55.0</v>
       </c>
-      <c r="H11" t="n" s="17">
+      <c r="I11" t="n" s="17">
+        <v>55.0</v>
+      </c>
+      <c r="J11" t="n" s="17">
         <v>-55.03</v>
       </c>
-      <c r="I11" t="n" s="17">
+      <c r="K11" t="n" s="17">
+        <v>-55.03</v>
+      </c>
+      <c r="L11" t="n" s="17">
         <v>-55.0</v>
       </c>
-      <c r="J11" t="n" s="17">
+      <c r="M11" t="n" s="17">
+        <v>-55.0</v>
+      </c>
+      <c r="N11" t="n" s="17">
         <v>9955.0</v>
       </c>
-      <c r="K11" t="s" s="17">
+      <c r="O11" t="n" s="17">
+        <v>9955.0</v>
+      </c>
+      <c r="P11" t="s" s="17">
         <v>24</v>
       </c>
-      <c r="L11" t="n" s="17">
+      <c r="Q11" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="R11" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M11" t="n" s="17">
+      <c r="S11" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T11" t="n" s="17">
+        <v>55.22</v>
+      </c>
+      <c r="U11" t="n" s="17">
         <v>55.22</v>
       </c>
     </row>
@@ -1421,24 +1607,48 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n" s="17">
         <v>121.0</v>
       </c>
-      <c r="H12" t="n" s="17">
+      <c r="I12" t="n" s="17">
+        <v>121.0</v>
+      </c>
+      <c r="J12" t="n" s="17">
         <v>-121.0</v>
       </c>
-      <c r="I12" t="n" s="17">
+      <c r="K12" t="n" s="17">
         <v>-121.0</v>
       </c>
-      <c r="J12" t="n" s="17">
+      <c r="L12" t="n" s="17">
+        <v>-121.0</v>
+      </c>
+      <c r="M12" t="n" s="17">
+        <v>-121.0</v>
+      </c>
+      <c r="N12" t="n" s="17">
         <v>121.0</v>
       </c>
-      <c r="K12" t="s" s="17">
+      <c r="O12" t="n" s="17">
+        <v>121.0</v>
+      </c>
+      <c r="P12" t="s" s="17">
         <v>25</v>
       </c>
-      <c r="L12" t="n" s="17">
+      <c r="Q12" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="R12" t="n" s="17">
         <v>1.0</v>
       </c>
-      <c r="M12" t="n" s="17">
+      <c r="S12" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="T12" t="n" s="17">
+        <v>20.11</v>
+      </c>
+      <c r="U12" t="n" s="17">
         <v>20.11</v>
       </c>
     </row>
@@ -1472,24 +1682,48 @@
         <v>3.0</v>
       </c>
       <c r="G15" t="n" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="H15" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H15" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s" s="18">
-        <v>15</v>
+      <c r="I15" t="n" s="18">
+        <v>1.0</v>
       </c>
       <c r="J15" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K15" t="s" s="18">
+      <c r="O15" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L15" t="s" s="18">
+      <c r="Q15" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M15" t="s" s="18">
+      <c r="S15" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U15" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1505,24 +1739,48 @@
         <v>0.0</v>
       </c>
       <c r="G16" t="n" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H16" t="s" s="18">
+      <c r="I16" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="I16" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s" s="18">
+      <c r="K16" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K16" t="s" s="18">
+      <c r="O16" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L16" t="s" s="18">
+      <c r="Q16" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M16" t="s" s="18">
+      <c r="S16" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1533,22 +1791,46 @@
       <c r="G17" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H17" t="s" s="18">
+      <c r="H17" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="I17" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s" s="18">
+      <c r="K17" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K17" t="s" s="18">
+      <c r="O17" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L17" t="s" s="18">
+      <c r="Q17" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M17" t="s" s="18">
+      <c r="S17" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T17" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1560,24 +1842,48 @@
         <v>2.0</v>
       </c>
       <c r="G18" t="n" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H18" t="s" s="18">
+      <c r="I18" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="I18" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s" s="18">
+      <c r="K18" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K18" t="s" s="18">
+      <c r="O18" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L18" t="s" s="18">
+      <c r="Q18" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M18" t="s" s="18">
+      <c r="S18" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1592,24 +1898,48 @@
         <v>3.0</v>
       </c>
       <c r="G19" t="n" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H19" t="s" s="18">
+      <c r="I19" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="I19" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s" s="18">
+      <c r="K19" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K19" t="s" s="18">
+      <c r="O19" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P19" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L19" t="s" s="18">
+      <c r="Q19" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M19" t="s" s="18">
+      <c r="S19" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1624,24 +1954,48 @@
         <v>5.0</v>
       </c>
       <c r="G20" t="n" s="18">
+        <v>5.0</v>
+      </c>
+      <c r="H20" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H20" t="s" s="18">
+      <c r="I20" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J20" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="I20" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s" s="18">
+      <c r="K20" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K20" t="s" s="18">
+      <c r="O20" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L20" t="s" s="18">
+      <c r="Q20" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M20" t="s" s="18">
+      <c r="S20" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1656,24 +2010,48 @@
         <v>10.0</v>
       </c>
       <c r="G21" t="n" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="H21" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H21" t="s" s="18">
+      <c r="I21" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J21" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="I21" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s" s="18">
+      <c r="K21" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K21" t="s" s="18">
+      <c r="O21" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P21" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L21" t="s" s="18">
+      <c r="Q21" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M21" t="s" s="18">
+      <c r="S21" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T21" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U21" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1688,24 +2066,48 @@
         <v>15.0</v>
       </c>
       <c r="G22" t="n" s="18">
+        <v>15.0</v>
+      </c>
+      <c r="H22" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H22" t="s" s="18">
+      <c r="I22" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J22" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="I22" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s" s="18">
+      <c r="K22" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K22" t="s" s="18">
+      <c r="O22" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L22" t="s" s="18">
+      <c r="Q22" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M22" t="s" s="18">
+      <c r="S22" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U22" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1720,24 +2122,48 @@
         <v>50.0</v>
       </c>
       <c r="G23" t="n" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="H23" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="H23" t="s" s="18">
+      <c r="I23" t="n" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J23" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="I23" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s" s="18">
+      <c r="K23" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K23" t="s" s="18">
+      <c r="O23" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P23" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L23" t="s" s="18">
+      <c r="Q23" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M23" t="s" s="18">
+      <c r="S23" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T23" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1752,24 +2178,48 @@
         <v>101.0</v>
       </c>
       <c r="G24" t="n" s="18">
+        <v>101.0</v>
+      </c>
+      <c r="H24" t="n" s="18">
         <v>60.0</v>
       </c>
-      <c r="H24" t="s" s="18">
+      <c r="I24" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="J24" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="I24" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s" s="18">
+      <c r="K24" t="s" s="18">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K24" t="s" s="18">
+      <c r="O24" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P24" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L24" t="s" s="18">
+      <c r="Q24" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M24" t="s" s="18">
+      <c r="S24" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1784,24 +2234,48 @@
         <v>200.0</v>
       </c>
       <c r="G25" t="n" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="H25" t="n" s="18">
         <v>60.0</v>
       </c>
-      <c r="H25" t="s" s="18">
+      <c r="I25" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="J25" t="s" s="18">
         <v>30</v>
       </c>
-      <c r="I25" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J25" t="s" s="18">
+      <c r="K25" t="s" s="18">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K25" t="s" s="18">
+      <c r="O25" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P25" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L25" t="s" s="18">
+      <c r="Q25" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M25" t="s" s="18">
+      <c r="S25" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1816,24 +2290,48 @@
         <v>900.0</v>
       </c>
       <c r="G26" t="n" s="18">
+        <v>900.0</v>
+      </c>
+      <c r="H26" t="n" s="18">
         <v>60.0</v>
       </c>
-      <c r="H26" t="s" s="18">
+      <c r="I26" t="n" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="J26" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="I26" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="J26" t="s" s="18">
+      <c r="K26" t="s" s="18">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s" s="18">
         <v>31</v>
       </c>
-      <c r="K26" t="s" s="18">
+      <c r="O26" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="P26" t="s" s="18">
         <v>32</v>
       </c>
-      <c r="L26" t="s" s="18">
+      <c r="Q26" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="M26" t="s" s="18">
+      <c r="S26" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="T26" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="U26" t="s" s="18">
         <v>34</v>
       </c>
     </row>
@@ -1863,51 +2361,36 @@
       <c r="B29" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="F29" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s" s="21">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s" s="21">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s" s="21">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="K29" t="s" s="21">
-        <v>40</v>
-      </c>
-      <c r="L29" t="s" s="21">
-        <v>41</v>
-      </c>
-      <c r="M29" t="s" s="21">
-        <v>42</v>
-      </c>
-      <c r="N29" t="s" s="21">
-        <v>43</v>
-      </c>
-      <c r="O29" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="P29" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="Q29" t="s" s="21">
-        <v>46</v>
-      </c>
-      <c r="R29" t="s" s="21">
-        <v>47</v>
-      </c>
-      <c r="S29" t="s" s="21">
-        <v>48</v>
-      </c>
-      <c r="T29" t="s" s="21">
-        <v>49</v>
-      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" t="n" s="15">
@@ -1917,97 +2400,187 @@
         <v>31</v>
       </c>
       <c r="F30" t="s" s="20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="20">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J30" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="J30" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L30" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M30" t="s" s="20">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="N30" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O30" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O30" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P30" t="s" s="20">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="Q30" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T30" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z30" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R30" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S30" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T30" t="s" s="20">
-        <v>127</v>
+      <c r="AC30" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE30" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG30" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="s" s="20">
+        <v>112</v>
+      </c>
+      <c r="AI30" t="s" s="20">
+        <v>112</v>
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" s="2"/>
       <c r="F31" t="s" s="20">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="20">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L31" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J31" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L31" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M31" t="s" s="20">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O31" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O31" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P31" t="s" s="20">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Q31" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T31" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z31" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="AA31" t="s" s="20">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R31" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S31" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T31" t="s" s="20">
-        <v>128</v>
+      <c r="AC31" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE31" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG31" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH31" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="AI31" t="s" s="20">
+        <v>113</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
@@ -2015,1318 +2588,2578 @@
         <f>SUM(A19:A30)</f>
       </c>
       <c r="F32" t="s" s="20">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="M32" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="N32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P32" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q32" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T32" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="U32" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X32" t="n" s="20">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="Y32" t="n" s="20">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="Z32" t="s" s="20">
         <v>81</v>
       </c>
-      <c r="H32" t="s" s="20">
-        <v>84</v>
-      </c>
-      <c r="I32" t="s" s="20">
-        <v>86</v>
-      </c>
-      <c r="J32" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L32" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M32" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="N32" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O32" t="n" s="20">
-        <v>2.0160301E7</v>
-      </c>
-      <c r="P32" t="s" s="20">
-        <v>96</v>
-      </c>
-      <c r="Q32" t="s" s="20">
+      <c r="AA32" t="s" s="20">
+        <v>81</v>
+      </c>
+      <c r="AB32" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R32" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S32" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T32" t="s" s="20">
-        <v>129</v>
+      <c r="AC32" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD32" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE32" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="s" s="20">
+        <v>114</v>
+      </c>
+      <c r="AI32" t="s" s="20">
+        <v>114</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="F33" t="s" s="20">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="20">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H33" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I33" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L33" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J33" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L33" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M33" t="s" s="20">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O33" t="n" s="20">
+      <c r="O33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P33" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T33" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X33" t="n" s="20">
         <v>2.016021E7</v>
       </c>
-      <c r="P33" t="s" s="20">
-        <v>97</v>
-      </c>
-      <c r="Q33" t="s" s="20">
+      <c r="Y33" t="n" s="20">
+        <v>2.016021E7</v>
+      </c>
+      <c r="Z33" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="AA33" t="s" s="20">
+        <v>82</v>
+      </c>
+      <c r="AB33" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R33" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S33" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T33" t="s" s="20">
-        <v>130</v>
+      <c r="AC33" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD33" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE33" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG33" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="AI33" t="s" s="20">
+        <v>115</v>
       </c>
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="F34" t="s" s="20">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="20">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s" s="20">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s" s="20">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="20">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s" s="20">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M34" t="s" s="20">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N34" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O34" t="n" s="20">
+      <c r="O34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P34" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q34" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T34" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n" s="20">
         <v>2.0160222E7</v>
       </c>
-      <c r="P34" t="s" s="20">
-        <v>98</v>
-      </c>
-      <c r="Q34" t="s" s="20">
+      <c r="Y34" t="n" s="20">
+        <v>2.0160222E7</v>
+      </c>
+      <c r="Z34" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="AA34" t="s" s="20">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R34" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S34" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T34" t="s" s="20">
-        <v>131</v>
+      <c r="AC34" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD34" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE34" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH34" t="s" s="20">
+        <v>116</v>
+      </c>
+      <c r="AI34" t="s" s="20">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="F35" t="s" s="20">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="20">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L35" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="M35" t="s" s="20">
+        <v>71</v>
+      </c>
+      <c r="N35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P35" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q35" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T35" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U35" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z35" t="s" s="20">
         <v>84</v>
       </c>
-      <c r="I35" t="s" s="20">
-        <v>86</v>
-      </c>
-      <c r="J35" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L35" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M35" t="s" s="20">
-        <v>92</v>
-      </c>
-      <c r="N35" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O35" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="P35" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="Q35" t="s" s="20">
+      <c r="AA35" t="s" s="20">
+        <v>84</v>
+      </c>
+      <c r="AB35" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R35" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S35" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T35" t="s" s="20">
-        <v>132</v>
+      <c r="AC35" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE35" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG35" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH35" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="AI35" t="s" s="20">
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="F36" t="s" s="20">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="20">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K36" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L36" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J36" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L36" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M36" t="s" s="20">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O36" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O36" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P36" t="s" s="20">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="Q36" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S36" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T36" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W36" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z36" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AA36" t="s" s="20">
+        <v>85</v>
+      </c>
+      <c r="AB36" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R36" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S36" t="s" s="20">
-        <v>125</v>
-      </c>
-      <c r="T36" t="s" s="20">
-        <v>133</v>
+      <c r="AC36" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE36" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF36" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="AG36" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="AH36" t="s" s="20">
+        <v>118</v>
+      </c>
+      <c r="AI36" t="s" s="20">
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="F37" t="s" s="20">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="20">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s" s="20">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="J37" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L37" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M37" t="s" s="20">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="N37" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O37" t="n" s="20">
+      <c r="O37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P37" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q37" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T37" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U37" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X37" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
-      <c r="P37" t="s" s="20">
-        <v>101</v>
-      </c>
-      <c r="Q37" t="s" s="20">
+      <c r="Y37" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="Z37" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="AA37" t="s" s="20">
+        <v>86</v>
+      </c>
+      <c r="AB37" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R37" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S37" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T37" t="s" s="20">
-        <v>134</v>
+      <c r="AC37" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD37" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE37" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG37" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="s" s="20">
+        <v>119</v>
+      </c>
+      <c r="AI37" t="s" s="20">
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="F38" t="s" s="20">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="20">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K38" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J38" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L38" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M38" t="s" s="20">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O38" t="n" s="20">
+      <c r="O38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P38" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q38" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T38" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U38" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X38" t="n" s="20">
         <v>2.0160211E7</v>
       </c>
-      <c r="P38" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="Q38" t="s" s="20">
+      <c r="Y38" t="n" s="20">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="Z38" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="AA38" t="s" s="20">
+        <v>87</v>
+      </c>
+      <c r="AB38" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R38" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S38" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T38" t="s" s="20">
-        <v>135</v>
+      <c r="AC38" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD38" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE38" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG38" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH38" t="s" s="20">
+        <v>120</v>
+      </c>
+      <c r="AI38" t="s" s="20">
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="F39" t="s" s="20">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="20">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K39" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L39" t="s" s="20">
         <v>16</v>
       </c>
-      <c r="J39" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L39" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M39" t="s" s="20">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="N39" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O39" t="n" s="20">
+      <c r="O39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P39" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q39" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T39" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U39" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X39" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
-      <c r="P39" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="Q39" t="s" s="20">
+      <c r="Y39" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="Z39" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="AA39" t="s" s="20">
+        <v>88</v>
+      </c>
+      <c r="AB39" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R39" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S39" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T39" t="s" s="20">
-        <v>136</v>
+      <c r="AC39" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD39" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE39" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG39" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="s" s="20">
+        <v>121</v>
+      </c>
+      <c r="AI39" t="s" s="20">
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="F40" t="s" s="20">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s" s="20">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K40" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L40" t="s" s="20">
         <v>23</v>
       </c>
-      <c r="J40" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K40" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="L40" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M40" t="s" s="20">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O40" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O40" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P40" t="s" s="20">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="Q40" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="R40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T40" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z40" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AA40" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="AB40" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="R40" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S40" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T40" t="s" s="20">
-        <v>137</v>
+      <c r="AC40" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="AD40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE40" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG40" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH40" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="AI40" t="s" s="20">
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="F41" t="s" s="20">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s" s="20">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="20">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I41" t="s" s="20">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s" s="20">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="20">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="20">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="M41" t="s" s="20">
+        <v>73</v>
+      </c>
+      <c r="N41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P41" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q41" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T41" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U41" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X41" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="Y41" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="Z41" t="s" s="20">
         <v>90</v>
       </c>
-      <c r="N41" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O41" t="n" s="20">
-        <v>2.0160205E7</v>
-      </c>
-      <c r="P41" t="s" s="20">
-        <v>105</v>
-      </c>
-      <c r="Q41" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R41" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S41" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T41" t="s" s="20">
-        <v>138</v>
+      <c r="AA41" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="AB41" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC41" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD41" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE41" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG41" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH41" t="s" s="20">
+        <v>123</v>
+      </c>
+      <c r="AI41" t="s" s="20">
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="F42" t="s" s="20">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="20">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="20">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I42" t="s" s="20">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s" s="20">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s" s="20">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="L42" t="s" s="20">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="M42" t="s" s="20">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="N42" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O42" t="n" s="20">
+      <c r="O42" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P42" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q42" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R42" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S42" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T42" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W42" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X42" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
-      <c r="P42" t="s" s="20">
-        <v>106</v>
-      </c>
-      <c r="Q42" t="s" s="20">
+      <c r="Y42" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="Z42" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="AA42" t="s" s="20">
+        <v>91</v>
+      </c>
+      <c r="AB42" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC42" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD42" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE42" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF42" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="AG42" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="AH42" t="s" s="20">
         <v>124</v>
       </c>
-      <c r="R42" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S42" t="s" s="20">
-        <v>126</v>
-      </c>
-      <c r="T42" t="s" s="20">
-        <v>139</v>
+      <c r="AI42" t="s" s="20">
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="F43" t="s" s="20">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="20">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I43" t="s" s="20">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s" s="20">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s" s="20">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="20">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M43" t="s" s="20">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O43" t="n" s="20">
+      <c r="O43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P43" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q43" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T43" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U43" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X43" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
-      <c r="P43" t="s" s="20">
-        <v>107</v>
-      </c>
-      <c r="Q43" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R43" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S43" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T43" t="s" s="20">
-        <v>140</v>
+      <c r="Y43" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="Z43" t="s" s="20">
+        <v>92</v>
+      </c>
+      <c r="AA43" t="s" s="20">
+        <v>92</v>
+      </c>
+      <c r="AB43" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC43" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD43" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE43" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG43" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="s" s="20">
+        <v>125</v>
+      </c>
+      <c r="AI43" t="s" s="20">
+        <v>125</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="F44" t="s" s="20">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s" s="20">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K44" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L44" t="s" s="20">
         <v>22</v>
       </c>
-      <c r="J44" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L44" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M44" t="s" s="20">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N44" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O44" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O44" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P44" t="s" s="20">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Q44" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R44" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R44" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S44" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T44" t="s" s="20">
-        <v>141</v>
+        <v>75</v>
+      </c>
+      <c r="U44" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V44" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W44" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z44" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="AA44" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="AB44" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC44" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE44" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF44" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG44" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH44" t="s" s="20">
+        <v>126</v>
+      </c>
+      <c r="AI44" t="s" s="20">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="F45" t="s" s="20">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="20">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I45" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J45" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K45" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L45" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="J45" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L45" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M45" t="s" s="20">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N45" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O45" t="n" s="20">
+      <c r="O45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P45" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q45" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T45" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U45" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X45" t="n" s="20">
         <v>2.0160206E7</v>
       </c>
-      <c r="P45" t="s" s="20">
+      <c r="Y45" t="n" s="20">
+        <v>2.0160206E7</v>
+      </c>
+      <c r="Z45" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="AA45" t="s" s="20">
+        <v>94</v>
+      </c>
+      <c r="AB45" t="s" s="20">
         <v>109</v>
       </c>
-      <c r="Q45" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R45" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S45" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T45" t="s" s="20">
-        <v>142</v>
+      <c r="AC45" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD45" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE45" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG45" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="s" s="20">
+        <v>127</v>
+      </c>
+      <c r="AI45" t="s" s="20">
+        <v>127</v>
       </c>
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="F46" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="20">
         <v>66</v>
       </c>
-      <c r="G46" t="s" s="20">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="20">
-        <v>84</v>
-      </c>
       <c r="I46" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K46" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L46" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="J46" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L46" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M46" t="s" s="20">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="N46" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O46" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O46" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P46" t="s" s="20">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Q46" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R46" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R46" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S46" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T46" t="s" s="20">
-        <v>143</v>
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W46" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z46" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="AA46" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="AB46" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC46" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE46" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF46" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG46" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="s" s="20">
+        <v>128</v>
+      </c>
+      <c r="AI46" t="s" s="20">
+        <v>128</v>
       </c>
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="F47" t="s" s="20">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="20">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I47" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K47" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L47" t="s" s="20">
         <v>25</v>
       </c>
-      <c r="J47" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L47" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M47" t="s" s="20">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="N47" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O47" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O47" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P47" t="s" s="20">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Q47" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R47" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R47" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S47" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T47" t="s" s="20">
-        <v>144</v>
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W47" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z47" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="AA47" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="AB47" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC47" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE47" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF47" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG47" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH47" t="s" s="20">
+        <v>129</v>
+      </c>
+      <c r="AI47" t="s" s="20">
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="F48" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s" s="20">
+        <v>53</v>
+      </c>
+      <c r="H48" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J48" t="s" s="20">
         <v>68</v>
       </c>
-      <c r="G48" t="s" s="20">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s" s="20">
-        <v>83</v>
-      </c>
-      <c r="I48" t="s" s="20">
+      <c r="K48" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L48" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="J48" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L48" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M48" t="s" s="20">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N48" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O48" t="n" s="20">
+      <c r="O48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P48" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q48" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T48" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U48" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X48" t="n" s="20">
         <v>2.0160212E7</v>
       </c>
-      <c r="P48" t="s" s="20">
-        <v>112</v>
-      </c>
-      <c r="Q48" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R48" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S48" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T48" t="s" s="20">
-        <v>145</v>
+      <c r="Y48" t="n" s="20">
+        <v>2.0160212E7</v>
+      </c>
+      <c r="Z48" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="AA48" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="AB48" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC48" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD48" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE48" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG48" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH48" t="s" s="20">
+        <v>130</v>
+      </c>
+      <c r="AI48" t="s" s="20">
+        <v>130</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="F49" t="s" s="20">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s" s="20">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I49" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K49" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="J49" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L49" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M49" t="s" s="20">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N49" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O49" t="n" s="20">
+      <c r="O49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P49" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q49" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T49" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="U49" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X49" t="n" s="20">
         <v>2.0160211E7</v>
       </c>
-      <c r="P49" t="s" s="20">
-        <v>113</v>
-      </c>
-      <c r="Q49" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R49" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S49" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T49" t="s" s="20">
-        <v>146</v>
+      <c r="Y49" t="n" s="20">
+        <v>2.0160211E7</v>
+      </c>
+      <c r="Z49" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="AA49" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="AB49" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC49" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD49" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE49" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG49" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="s" s="20">
+        <v>131</v>
+      </c>
+      <c r="AI49" t="s" s="20">
+        <v>131</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="F50" t="s" s="20">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="20">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I50" t="s" s="20">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s" s="20">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s" s="20">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s" s="20">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s" s="20">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N50" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O50" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O50" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P50" t="s" s="20">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="Q50" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R50" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R50" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S50" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T50" t="s" s="20">
-        <v>147</v>
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W50" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z50" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="AA50" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="AB50" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC50" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE50" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF50" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG50" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH50" t="s" s="20">
+        <v>132</v>
+      </c>
+      <c r="AI50" t="s" s="20">
+        <v>132</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
       <c r="F51" t="s" s="20">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="20">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I51" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J51" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K51" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L51" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J51" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K51" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L51" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M51" t="s" s="20">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O51" t="n" s="20">
+      <c r="O51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P51" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q51" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T51" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X51" t="n" s="20">
         <v>2.016031E7</v>
       </c>
-      <c r="P51" t="s" s="20">
-        <v>115</v>
-      </c>
-      <c r="Q51" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R51" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S51" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T51" t="s" s="20">
-        <v>148</v>
+      <c r="Y51" t="n" s="20">
+        <v>2.016031E7</v>
+      </c>
+      <c r="Z51" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA51" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="AB51" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC51" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD51" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE51" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG51" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH51" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="AI51" t="s" s="20">
+        <v>133</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
       <c r="F52" t="s" s="20">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G52" t="s" s="20">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H52" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J52" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K52" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L52" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="J52" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K52" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L52" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M52" t="s" s="20">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="N52" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O52" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O52" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P52" t="s" s="20">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="Q52" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R52" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R52" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S52" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T52" t="s" s="20">
-        <v>149</v>
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W52" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z52" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="AA52" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="AB52" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC52" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE52" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF52" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG52" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH52" t="s" s="20">
+        <v>134</v>
+      </c>
+      <c r="AI52" t="s" s="20">
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="15.0" customHeight="true">
       <c r="F53" t="s" s="20">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s" s="20">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I53" t="s" s="20">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J53" t="s" s="20">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s" s="20">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s" s="20">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s" s="20">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N53" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O53" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O53" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P53" t="s" s="20">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="Q53" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R53" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S53" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T53" t="s" s="20">
-        <v>150</v>
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W53" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z53" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="AA53" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="AB53" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC53" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE53" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF53" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG53" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH53" t="s" s="20">
+        <v>135</v>
+      </c>
+      <c r="AI53" t="s" s="20">
+        <v>135</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="true">
       <c r="F54" t="s" s="20">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s" s="20">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s" s="20">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I54" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J54" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K54" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L54" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="J54" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L54" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M54" t="s" s="20">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="N54" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O54" t="n" s="20">
-        <v>2.0160204E7</v>
+      <c r="O54" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="P54" t="s" s="20">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="Q54" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R54" t="n" s="20">
-        <v>2.0160204E7</v>
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="20">
+        <v>15</v>
       </c>
       <c r="S54" t="s" s="20">
         <v>15</v>
       </c>
       <c r="T54" t="s" s="20">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W54" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z54" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="AA54" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="AB54" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC54" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE54" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF54" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG54" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH54" t="s" s="20">
+        <v>136</v>
+      </c>
+      <c r="AI54" t="s" s="20">
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
       <c r="F55" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="H55" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="I55" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J55" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K55" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L55" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="M55" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="N55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P55" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q55" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T55" t="s" s="20">
         <v>75</v>
       </c>
-      <c r="G55" t="s" s="20">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="20">
-        <v>84</v>
-      </c>
-      <c r="I55" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K55" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L55" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M55" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="N55" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O55" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="P55" t="s" s="20">
-        <v>119</v>
-      </c>
-      <c r="Q55" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R55" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S55" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T55" t="s" s="20">
-        <v>152</v>
+      <c r="U55" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z55" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="AA55" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="AB55" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC55" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE55" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG55" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH55" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="AI55" t="s" s="20">
+        <v>137</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
       <c r="F56" t="s" s="20">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s" s="20">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s" s="20">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I56" t="s" s="20">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s" s="20">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s" s="20">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="L56" t="s" s="20">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M56" t="s" s="20">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N56" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O56" t="n" s="20">
+      <c r="O56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P56" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q56" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T56" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X56" t="n" s="20">
         <v>2.0160301E7</v>
       </c>
-      <c r="P56" t="s" s="20">
-        <v>120</v>
-      </c>
-      <c r="Q56" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R56" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S56" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T56" t="s" s="20">
-        <v>153</v>
+      <c r="Y56" t="n" s="20">
+        <v>2.0160301E7</v>
+      </c>
+      <c r="Z56" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="AA56" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="AB56" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC56" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD56" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE56" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG56" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH56" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="AI56" t="s" s="20">
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="true">
       <c r="F57" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s" s="20">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s" s="20">
+        <v>66</v>
+      </c>
+      <c r="J57" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="K57" t="s" s="20">
+        <v>69</v>
+      </c>
+      <c r="L57" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="M57" t="s" s="20">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P57" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="Q57" t="s" s="20">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T57" t="s" s="20">
         <v>77</v>
       </c>
-      <c r="G57" t="s" s="20">
-        <v>81</v>
-      </c>
-      <c r="H57" t="s" s="20">
-        <v>84</v>
-      </c>
-      <c r="I57" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="J57" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K57" t="s" s="20">
-        <v>89</v>
-      </c>
-      <c r="L57" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M57" t="s" s="20">
-        <v>92</v>
-      </c>
-      <c r="N57" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O57" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="P57" t="s" s="20">
-        <v>121</v>
-      </c>
-      <c r="Q57" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R57" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S57" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T57" t="s" s="20">
-        <v>154</v>
+      <c r="U57" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Y57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="Z57" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="AA57" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="AB57" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC57" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE57" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG57" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH57" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="AI57" t="s" s="20">
+        <v>139</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
       <c r="F58" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s" s="20">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="I58" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J58" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K58" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="M58" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="N58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="O58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P58" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="Q58" t="s" s="20">
+        <v>75</v>
+      </c>
+      <c r="R58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T58" t="s" s="20">
         <v>78</v>
       </c>
-      <c r="G58" t="s" s="20">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s" s="20">
-        <v>83</v>
-      </c>
-      <c r="I58" t="s" s="20">
-        <v>22</v>
-      </c>
-      <c r="J58" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K58" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="L58" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="M58" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="N58" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="O58" t="n" s="20">
+      <c r="U58" t="s" s="20">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X58" t="n" s="20">
         <v>2.0160205E7</v>
       </c>
-      <c r="P58" t="s" s="20">
-        <v>122</v>
-      </c>
-      <c r="Q58" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R58" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S58" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T58" t="s" s="20">
-        <v>155</v>
+      <c r="Y58" t="n" s="20">
+        <v>2.0160205E7</v>
+      </c>
+      <c r="Z58" t="s" s="20">
+        <v>107</v>
+      </c>
+      <c r="AA58" t="s" s="20">
+        <v>107</v>
+      </c>
+      <c r="AB58" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC58" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD58" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE58" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH58" t="s" s="20">
+        <v>140</v>
+      </c>
+      <c r="AI58" t="s" s="20">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
       <c r="F59" t="s" s="20">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G59" t="s" s="20">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H59" t="s" s="20">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I59" t="s" s="20">
+        <v>65</v>
+      </c>
+      <c r="J59" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="K59" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="J59" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="K59" t="s" s="20">
-        <v>91</v>
-      </c>
-      <c r="L59" t="s" s="20">
-        <v>15</v>
-      </c>
       <c r="M59" t="s" s="20">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="N59" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="O59" t="n" s="20">
+      <c r="O59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="P59" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="Q59" t="s" s="20">
+        <v>76</v>
+      </c>
+      <c r="R59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="S59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="T59" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="20">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="W59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="X59" t="n" s="20">
         <v>2.0160208E7</v>
       </c>
-      <c r="P59" t="s" s="20">
-        <v>123</v>
-      </c>
-      <c r="Q59" t="s" s="20">
-        <v>124</v>
-      </c>
-      <c r="R59" t="n" s="20">
-        <v>2.0160204E7</v>
-      </c>
-      <c r="S59" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="T59" t="s" s="20">
-        <v>156</v>
+      <c r="Y59" t="n" s="20">
+        <v>2.0160208E7</v>
+      </c>
+      <c r="Z59" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="AA59" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="AB59" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AC59" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="AD59" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AE59" t="n" s="20">
+        <v>2.0160204E7</v>
+      </c>
+      <c r="AF59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AG59" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="AH59" t="s" s="20">
+        <v>141</v>
+      </c>
+      <c r="AI59" t="s" s="20">
+        <v>141</v>
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="true"/>

--- a/target/classes/excel/cpc_output.xlsx
+++ b/target/classes/excel/cpc_output.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList/>
 </comments>
